--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_12_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_12_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1043941.918849797</v>
+        <v>1039273.387455572</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14648395.36774494</v>
+        <v>14648395.36774493</v>
       </c>
     </row>
     <row r="8">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.9052816689143</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.91089548498542</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.01360582521501</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.8582926878957</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1454,22 +1454,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D12" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>135.0820259802211</v>
+        <v>94.06994563877558</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8316231604907</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>13.51341119095448</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>207.8949068494365</v>
       </c>
       <c r="V12" t="n">
-        <v>146.9854826230643</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
         <v>187.4140068734885</v>
@@ -1539,16 +1539,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.7100109010716</v>
       </c>
       <c r="H13" t="n">
-        <v>146.2642254704225</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105.8557525705746</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>83.92569611446805</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.7742846453212</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>152.0534586096071</v>
       </c>
       <c r="U13" t="n">
-        <v>245.6203048840893</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -1609,10 +1609,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>324.0240855291555</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>121.0833861084235</v>
       </c>
       <c r="T14" t="n">
-        <v>165.4136141685206</v>
+        <v>212.8582926878957</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.0415565134338</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
         <v>135.0820259802211</v>
@@ -1700,13 +1700,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>65.49839908317158</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>6.872469914417652</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>177.5210747552478</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.7100109010716</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>146.2642254704225</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>105.8557525705746</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>83.92569611446805</v>
+        <v>5.593218042323151</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>185.7742846453212</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>229.6808962550451</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5374127972193</v>
       </c>
       <c r="V16" t="n">
-        <v>113.3110282791628</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -1846,16 +1846,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>10.44200252897668</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>407.1105560029575</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>62.91089548498542</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>121.0833861084235</v>
       </c>
       <c r="T17" t="n">
-        <v>212.8582926878957</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>5.059739037713284</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>77.49002255305206</v>
       </c>
       <c r="I18" t="n">
-        <v>13.51341119095448</v>
+        <v>13.5134111909551</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>114.4942144005363</v>
+        <v>114.4942144005354</v>
       </c>
       <c r="T18" t="n">
         <v>171.0720383115627</v>
@@ -2010,10 +2010,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>105.8557525705746</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>185.7742846453212</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.6808962550451</v>
       </c>
       <c r="U19" t="n">
         <v>282.5374127972193</v>
@@ -2067,7 +2067,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>215.4409709817528</v>
+        <v>215.5974421105075</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>407.1105560029575</v>
@@ -2101,7 +2101,7 @@
         <v>301.1731624060981</v>
       </c>
       <c r="I20" t="n">
-        <v>62.91089548498542</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>121.0833861084235</v>
       </c>
       <c r="T20" t="n">
-        <v>212.8582926878957</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>345.2980961089745</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>255.7162626173961</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>117.8316231604913</v>
+        <v>117.8316231604907</v>
       </c>
       <c r="H21" t="n">
         <v>77.49002255305206</v>
       </c>
       <c r="I21" t="n">
-        <v>13.51341119095448</v>
+        <v>13.5134111909551</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -2250,10 +2250,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.7100109010716</v>
+        <v>31.9377813313659</v>
       </c>
       <c r="H22" t="n">
         <v>146.2642254704225</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>83.92569611446805</v>
       </c>
       <c r="S22" t="n">
-        <v>68.9386446574445</v>
+        <v>185.7742846453212</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>229.6808962550451</v>
       </c>
       <c r="U22" t="n">
         <v>282.5374127972193</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>407.1105560029575</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>301.1731624060981</v>
@@ -2377,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>298.7885343232398</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>311.312762212351</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>112.7824478936705</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -2496,7 +2496,7 @@
         <v>146.2642254704225</v>
       </c>
       <c r="I25" t="n">
-        <v>105.8557525705746</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>83.92569611446805</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>185.7742846453212</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.6808962550451</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5374127972193</v>
+        <v>242.2332876937901</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>212.3030936432443</v>
+        <v>285.0643951738945</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.1731624060981</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>62.91089548498542</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>121.0833861084235</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0415565134338</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>146.2642254704225</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>45.1032772172219</v>
+        <v>105.8557525705746</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>185.7742846453212</v>
       </c>
       <c r="T28" t="n">
         <v>229.6808962550451</v>
@@ -2772,16 +2772,16 @@
         <v>282.5374127972193</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>4.496044573830805</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>407.1105560029575</v>
       </c>
       <c r="H29" t="n">
-        <v>261.6683189656208</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>62.91089548498542</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>286.661173269481</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>83.60245331134995</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.7100109010716</v>
       </c>
       <c r="H31" t="n">
-        <v>146.2642254704225</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>105.8557525705746</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>83.92569611446805</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>185.7742846453212</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.6808962550451</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>166.0839007284947</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.47281328090117</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>301.1731624060981</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>121.0833861084235</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8582926878957</v>
+        <v>149.6557675570947</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>185.7742846453212</v>
+        <v>71.24801642343216</v>
       </c>
       <c r="T34" t="n">
         <v>229.6808962550451</v>
@@ -3246,13 +3246,13 @@
         <v>282.5374127972193</v>
       </c>
       <c r="V34" t="n">
-        <v>43.47408059227185</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>179.4982969319347</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>407.1105560029575</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>121.0622369096608</v>
       </c>
       <c r="T35" t="n">
         <v>212.8582926878957</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.7100109010716</v>
       </c>
       <c r="H37" t="n">
-        <v>83.61567847179066</v>
+        <v>146.2642254704225</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>83.92569611446805</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>185.7742846453212</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5374127972193</v>
+        <v>237.1728916512176</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -3489,10 +3489,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>223.2421781363502</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>301.1731624060981</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>174.5113227719572</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.0415565134338</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>149.1476881355094</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>114.4942144005363</v>
+        <v>114.4942144005354</v>
       </c>
       <c r="T39" t="n">
         <v>171.0720383115627</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.7100109010716</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.7481160632359</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>83.92569611446805</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>185.7742846453212</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>229.6808962550451</v>
       </c>
       <c r="U40" t="n">
-        <v>267.8011103663815</v>
+        <v>282.5374127972193</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>136.2054953405361</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>121.0833861084235</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.0415565134338</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>212.4104117580498</v>
       </c>
     </row>
     <row r="42">
@@ -3821,22 +3821,22 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>3.815329149744232</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8316231604907</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>77.49002255305206</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>114.4942144005354</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>171.0720383115627</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>200.4735134596552</v>
       </c>
       <c r="V42" t="n">
         <v>220.3146016126436</v>
@@ -3909,7 +3909,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.7100109010716</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.92569611446805</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>185.7742846453212</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>229.6808962550451</v>
       </c>
       <c r="U43" t="n">
-        <v>185.6016910094363</v>
+        <v>282.5374127972193</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>81.6584918353675</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>106.9701888911499</v>
       </c>
       <c r="H44" t="n">
-        <v>158.1601971412395</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4067,16 +4067,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8316231604907</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>77.49002255305206</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>5.413867518048405</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>114.4942144005354</v>
+        <v>73.4821340590899</v>
       </c>
       <c r="T45" t="n">
         <v>171.0720383115627</v>
@@ -4121,10 +4121,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -4152,10 +4152,10 @@
         <v>165.7100109010716</v>
       </c>
       <c r="H46" t="n">
-        <v>146.2642254704225</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>105.8557525705746</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5374127972193</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>150.4950350832341</v>
       </c>
       <c r="X46" t="n">
-        <v>100.0381365439248</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>515.4855908065731</v>
+        <v>740.2458317971848</v>
       </c>
       <c r="C11" t="n">
-        <v>515.4855908065731</v>
+        <v>347.0703303001154</v>
       </c>
       <c r="D11" t="n">
-        <v>515.4855908065731</v>
+        <v>347.0703303001154</v>
       </c>
       <c r="E11" t="n">
-        <v>515.4855908065731</v>
+        <v>347.0703303001154</v>
       </c>
       <c r="F11" t="n">
-        <v>98.59115233655086</v>
+        <v>347.0703303001154</v>
       </c>
       <c r="G11" t="n">
-        <v>98.59115233655086</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="H11" t="n">
-        <v>98.59115233655086</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="I11" t="n">
         <v>35.04479326080801</v>
@@ -5047,19 +5047,19 @@
         <v>441.3037445939414</v>
       </c>
       <c r="L11" t="n">
-        <v>874.9830611964405</v>
+        <v>589.6379085926957</v>
       </c>
       <c r="M11" t="n">
-        <v>1060.618533917289</v>
+        <v>775.2733813135442</v>
       </c>
       <c r="N11" t="n">
-        <v>1252.256758108914</v>
+        <v>966.911605505169</v>
       </c>
       <c r="O11" t="n">
-        <v>1424.547379181972</v>
+        <v>1139.202226578227</v>
       </c>
       <c r="P11" t="n">
-        <v>1607.767369542872</v>
+        <v>1279.868097967715</v>
       </c>
       <c r="Q11" t="n">
         <v>1670.03982105158</v>
@@ -5068,25 +5068,25 @@
         <v>1752.239663040401</v>
       </c>
       <c r="S11" t="n">
-        <v>1672.427939984628</v>
+        <v>1752.239663040401</v>
       </c>
       <c r="T11" t="n">
-        <v>1672.427939984628</v>
+        <v>1537.231286587981</v>
       </c>
       <c r="U11" t="n">
-        <v>1672.427939984628</v>
+        <v>1537.231286587981</v>
       </c>
       <c r="V11" t="n">
-        <v>1672.427939984628</v>
+        <v>1537.231286587981</v>
       </c>
       <c r="W11" t="n">
-        <v>1301.428904952915</v>
+        <v>1537.231286587981</v>
       </c>
       <c r="X11" t="n">
-        <v>911.9762998859719</v>
+        <v>1537.231286587981</v>
       </c>
       <c r="Y11" t="n">
-        <v>515.4855908065731</v>
+        <v>1140.740577508582</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>584.9062338384944</v>
+        <v>280.7191708105901</v>
       </c>
       <c r="C12" t="n">
-        <v>434.2520033985866</v>
+        <v>130.0649403706823</v>
       </c>
       <c r="D12" t="n">
-        <v>304.1630360200669</v>
+        <v>130.0649403706823</v>
       </c>
       <c r="E12" t="n">
-        <v>167.7165451309546</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="F12" t="n">
-        <v>167.7165451309546</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="G12" t="n">
-        <v>48.69470355470143</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="H12" t="n">
-        <v>48.69470355470143</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="I12" t="n">
         <v>35.04479326080801</v>
@@ -5156,16 +5156,16 @@
         <v>1253.794047321679</v>
       </c>
       <c r="V12" t="n">
-        <v>1105.323862853937</v>
+        <v>1031.254045692746</v>
       </c>
       <c r="W12" t="n">
-        <v>1105.323862853937</v>
+        <v>801.1367998260325</v>
       </c>
       <c r="X12" t="n">
-        <v>916.0167852039485</v>
+        <v>611.8297221760442</v>
       </c>
       <c r="Y12" t="n">
-        <v>736.7025682794557</v>
+        <v>432.5155052515515</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1095.818265101006</v>
+        <v>683.8256858281234</v>
       </c>
       <c r="C13" t="n">
-        <v>925.6131471669951</v>
+        <v>513.6205678941126</v>
       </c>
       <c r="D13" t="n">
-        <v>769.9800340695099</v>
+        <v>357.9874547966273</v>
       </c>
       <c r="E13" t="n">
-        <v>614.4212219287124</v>
+        <v>202.4286426558298</v>
       </c>
       <c r="F13" t="n">
-        <v>457.0952871416854</v>
+        <v>202.4286426558298</v>
       </c>
       <c r="G13" t="n">
-        <v>289.7114377466636</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="H13" t="n">
-        <v>141.969795857348</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="I13" t="n">
         <v>35.04479326080801</v>
       </c>
       <c r="J13" t="n">
-        <v>65.57019237956047</v>
+        <v>65.57019237956035</v>
       </c>
       <c r="K13" t="n">
-        <v>246.495246493605</v>
+        <v>246.4952464936049</v>
       </c>
       <c r="L13" t="n">
-        <v>537.4239875152214</v>
+        <v>537.4239875152213</v>
       </c>
       <c r="M13" t="n">
-        <v>857.4095481875811</v>
+        <v>857.409548187581</v>
       </c>
       <c r="N13" t="n">
         <v>1171.114220473725</v>
@@ -5223,28 +5223,28 @@
         <v>1752.239663040401</v>
       </c>
       <c r="R13" t="n">
-        <v>1752.239663040401</v>
+        <v>1667.466232621746</v>
       </c>
       <c r="S13" t="n">
-        <v>1752.239663040401</v>
+        <v>1479.815440050714</v>
       </c>
       <c r="T13" t="n">
-        <v>1752.239663040401</v>
+        <v>1326.226087919798</v>
       </c>
       <c r="U13" t="n">
-        <v>1504.138344975664</v>
+        <v>1326.226087919798</v>
       </c>
       <c r="V13" t="n">
-        <v>1504.138344975664</v>
+        <v>1326.226087919798</v>
       </c>
       <c r="W13" t="n">
-        <v>1504.138344975664</v>
+        <v>1326.226087919798</v>
       </c>
       <c r="X13" t="n">
-        <v>1504.138344975664</v>
+        <v>1092.145765702781</v>
       </c>
       <c r="Y13" t="n">
-        <v>1281.026283792307</v>
+        <v>869.0337045194246</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>813.6614235412097</v>
+        <v>362.3418493508642</v>
       </c>
       <c r="C14" t="n">
-        <v>420.4859220441403</v>
+        <v>362.3418493508642</v>
       </c>
       <c r="D14" t="n">
         <v>35.04479326080801</v>
@@ -5278,13 +5278,13 @@
         <v>35.04479326080801</v>
       </c>
       <c r="J14" t="n">
-        <v>210.1124730741715</v>
+        <v>341.070648604856</v>
       </c>
       <c r="K14" t="n">
-        <v>310.3455690632569</v>
+        <v>558.3894129449075</v>
       </c>
       <c r="L14" t="n">
-        <v>458.6797330620112</v>
+        <v>706.7235769436618</v>
       </c>
       <c r="M14" t="n">
         <v>892.3590496645103</v>
@@ -5305,25 +5305,25 @@
         <v>1752.239663040401</v>
       </c>
       <c r="S14" t="n">
-        <v>1752.239663040401</v>
+        <v>1629.933212425831</v>
       </c>
       <c r="T14" t="n">
-        <v>1585.155204284319</v>
+        <v>1414.924835973411</v>
       </c>
       <c r="U14" t="n">
-        <v>1585.155204284319</v>
+        <v>1159.32730414166</v>
       </c>
       <c r="V14" t="n">
-        <v>1585.155204284319</v>
+        <v>1159.32730414166</v>
       </c>
       <c r="W14" t="n">
-        <v>1214.156169252607</v>
+        <v>1159.32730414166</v>
       </c>
       <c r="X14" t="n">
-        <v>1214.156169252607</v>
+        <v>1159.32730414166</v>
       </c>
       <c r="Y14" t="n">
-        <v>1214.156169252607</v>
+        <v>762.836595062261</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>453.5192095091384</v>
+        <v>642.8262871591267</v>
       </c>
       <c r="C15" t="n">
-        <v>302.8649790692306</v>
+        <v>492.1720567192189</v>
       </c>
       <c r="D15" t="n">
-        <v>302.8649790692306</v>
+        <v>362.0830893406992</v>
       </c>
       <c r="E15" t="n">
-        <v>166.4184881801183</v>
+        <v>225.6365984515869</v>
       </c>
       <c r="F15" t="n">
-        <v>41.98668206325009</v>
+        <v>101.2047923347187</v>
       </c>
       <c r="G15" t="n">
-        <v>41.98668206325009</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="H15" t="n">
-        <v>41.98668206325009</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="I15" t="n">
         <v>35.04479326080801</v>
@@ -5360,22 +5360,22 @@
         <v>244.2742646421115</v>
       </c>
       <c r="K15" t="n">
-        <v>319.8482695298405</v>
+        <v>610.6701702619205</v>
       </c>
       <c r="L15" t="n">
-        <v>451.5764972637155</v>
+        <v>742.3983979957954</v>
       </c>
       <c r="M15" t="n">
-        <v>617.8790901220168</v>
+        <v>908.7009908540967</v>
       </c>
       <c r="N15" t="n">
-        <v>1051.558406724516</v>
+        <v>1088.770737691784</v>
       </c>
       <c r="O15" t="n">
-        <v>1240.241374714831</v>
+        <v>1239.056509688568</v>
       </c>
       <c r="P15" t="n">
-        <v>1348.292463111821</v>
+        <v>1672.735826291067</v>
       </c>
       <c r="Q15" t="n">
         <v>1712.517639739759</v>
@@ -5399,10 +5399,10 @@
         <v>973.9368385245807</v>
       </c>
       <c r="X15" t="n">
-        <v>784.6297608745924</v>
+        <v>973.9368385245807</v>
       </c>
       <c r="Y15" t="n">
-        <v>605.3155439500997</v>
+        <v>794.622621600088</v>
       </c>
     </row>
     <row r="16">
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1095.818265101006</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="C16" t="n">
-        <v>925.6131471669951</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="D16" t="n">
-        <v>769.9800340695099</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="E16" t="n">
-        <v>614.4212219287124</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="F16" t="n">
-        <v>457.0952871416854</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="G16" t="n">
-        <v>289.7114377466636</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="H16" t="n">
-        <v>141.969795857348</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="I16" t="n">
         <v>35.04479326080801</v>
       </c>
       <c r="J16" t="n">
-        <v>65.57019237956035</v>
+        <v>65.57019237956042</v>
       </c>
       <c r="K16" t="n">
-        <v>246.4952464936049</v>
+        <v>246.495246493605</v>
       </c>
       <c r="L16" t="n">
-        <v>537.4239875152213</v>
+        <v>537.4239875152214</v>
       </c>
       <c r="M16" t="n">
-        <v>857.409548187581</v>
+        <v>857.4095481875811</v>
       </c>
       <c r="N16" t="n">
         <v>1171.114220473725</v>
@@ -5460,28 +5460,28 @@
         <v>1752.239663040401</v>
       </c>
       <c r="R16" t="n">
-        <v>1667.466232621746</v>
+        <v>1746.589947846135</v>
       </c>
       <c r="S16" t="n">
-        <v>1667.466232621746</v>
+        <v>1558.939155275104</v>
       </c>
       <c r="T16" t="n">
-        <v>1667.466232621746</v>
+        <v>1326.938249966977</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.466232621746</v>
+        <v>1041.54692390918</v>
       </c>
       <c r="V16" t="n">
-        <v>1553.010648501379</v>
+        <v>775.567578730004</v>
       </c>
       <c r="W16" t="n">
-        <v>1553.010648501379</v>
+        <v>492.2371766611816</v>
       </c>
       <c r="X16" t="n">
-        <v>1318.930326284363</v>
+        <v>258.1568544441647</v>
       </c>
       <c r="Y16" t="n">
-        <v>1095.818265101006</v>
+        <v>35.04479326080801</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1252.37133040512</v>
+        <v>1350.184103755812</v>
       </c>
       <c r="C17" t="n">
-        <v>859.1958289080503</v>
+        <v>1350.184103755812</v>
       </c>
       <c r="D17" t="n">
-        <v>859.1958289080503</v>
+        <v>1339.636626453815</v>
       </c>
       <c r="E17" t="n">
-        <v>456.6123040245948</v>
+        <v>937.0531015703599</v>
       </c>
       <c r="F17" t="n">
-        <v>456.6123040245948</v>
+        <v>520.1586631003377</v>
       </c>
       <c r="G17" t="n">
-        <v>45.38952018322354</v>
+        <v>108.9358792589664</v>
       </c>
       <c r="H17" t="n">
-        <v>45.38952018322354</v>
+        <v>108.9358792589664</v>
       </c>
       <c r="I17" t="n">
         <v>45.38952018322354</v>
@@ -5518,49 +5518,49 @@
         <v>351.4153755272715</v>
       </c>
       <c r="K17" t="n">
-        <v>451.6484715163569</v>
+        <v>913.1106877946628</v>
       </c>
       <c r="L17" t="n">
-        <v>1013.343783783748</v>
+        <v>1061.444851793417</v>
       </c>
       <c r="M17" t="n">
-        <v>1575.039096051139</v>
+        <v>1247.080324514266</v>
       </c>
       <c r="N17" t="n">
-        <v>1766.677320242764</v>
+        <v>1438.71854870589</v>
       </c>
       <c r="O17" t="n">
-        <v>1938.967941315823</v>
+        <v>1645.508245385078</v>
       </c>
       <c r="P17" t="n">
-        <v>2063.588349758961</v>
+        <v>2207.203557652469</v>
       </c>
       <c r="Q17" t="n">
-        <v>2187.276167172357</v>
+        <v>2269.476009161177</v>
       </c>
       <c r="R17" t="n">
         <v>2269.476009161177</v>
       </c>
       <c r="S17" t="n">
-        <v>2269.476009161177</v>
+        <v>2147.169558546608</v>
       </c>
       <c r="T17" t="n">
-        <v>2054.467632708757</v>
+        <v>2147.169558546608</v>
       </c>
       <c r="U17" t="n">
-        <v>2054.467632708757</v>
+        <v>2147.169558546608</v>
       </c>
       <c r="V17" t="n">
-        <v>2054.467632708757</v>
+        <v>2147.169558546608</v>
       </c>
       <c r="W17" t="n">
-        <v>2049.356785195916</v>
+        <v>2147.169558546608</v>
       </c>
       <c r="X17" t="n">
-        <v>2049.356785195916</v>
+        <v>2147.169558546608</v>
       </c>
       <c r="Y17" t="n">
-        <v>1652.866076116517</v>
+        <v>1750.678849467209</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>797.955516931366</v>
+        <v>797.9555169313667</v>
       </c>
       <c r="C18" t="n">
-        <v>647.3012864914582</v>
+        <v>647.3012864914589</v>
       </c>
       <c r="D18" t="n">
-        <v>517.2123191129385</v>
+        <v>517.2123191129392</v>
       </c>
       <c r="E18" t="n">
-        <v>380.7658282238263</v>
+        <v>380.7658282238269</v>
       </c>
       <c r="F18" t="n">
-        <v>256.3340221069581</v>
+        <v>256.3340221069587</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3121805307049</v>
+        <v>137.3121805307055</v>
       </c>
       <c r="H18" t="n">
-        <v>59.03943047711695</v>
+        <v>59.03943047711758</v>
       </c>
       <c r="I18" t="n">
         <v>45.38952018322354</v>
       </c>
       <c r="J18" t="n">
-        <v>59.8839965847997</v>
+        <v>254.6189915645271</v>
       </c>
       <c r="K18" t="n">
-        <v>256.4874236756332</v>
+        <v>738.6331084944825</v>
       </c>
       <c r="L18" t="n">
-        <v>818.1827359430245</v>
+        <v>870.3613362283575</v>
       </c>
       <c r="M18" t="n">
-        <v>1379.878048210416</v>
+        <v>1036.663929086659</v>
       </c>
       <c r="N18" t="n">
-        <v>1559.947795048103</v>
+        <v>1216.733675924346</v>
       </c>
       <c r="O18" t="n">
-        <v>2121.643107315494</v>
+        <v>1367.01944792113</v>
       </c>
       <c r="P18" t="n">
-        <v>2229.694195712485</v>
+        <v>1865.528809232598</v>
       </c>
       <c r="Q18" t="n">
-        <v>2269.476009161177</v>
+        <v>2229.753985860536</v>
       </c>
       <c r="R18" t="n">
         <v>2269.476009161177</v>
       </c>
       <c r="S18" t="n">
-        <v>2153.825287544474</v>
+        <v>2153.825287544475</v>
       </c>
       <c r="T18" t="n">
-        <v>1981.025248845925</v>
+        <v>1981.025248845926</v>
       </c>
       <c r="U18" t="n">
-        <v>1771.030393442454</v>
+        <v>1771.030393442455</v>
       </c>
       <c r="V18" t="n">
-        <v>1548.490391813521</v>
+        <v>1548.490391813522</v>
       </c>
       <c r="W18" t="n">
-        <v>1318.373145946808</v>
+        <v>1318.373145946809</v>
       </c>
       <c r="X18" t="n">
-        <v>1129.06606829682</v>
+        <v>1129.066068296821</v>
       </c>
       <c r="Y18" t="n">
-        <v>949.7518513723273</v>
+        <v>949.751851372328</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>791.0375007390842</v>
+        <v>371.2277512147195</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8323828050734</v>
+        <v>201.0226332807088</v>
       </c>
       <c r="D19" t="n">
-        <v>465.1992697075881</v>
+        <v>45.38952018322354</v>
       </c>
       <c r="E19" t="n">
-        <v>309.6404575667906</v>
+        <v>45.38952018322354</v>
       </c>
       <c r="F19" t="n">
-        <v>152.3145227797635</v>
+        <v>45.38952018322354</v>
       </c>
       <c r="G19" t="n">
-        <v>152.3145227797635</v>
+        <v>45.38952018322354</v>
       </c>
       <c r="H19" t="n">
-        <v>152.3145227797635</v>
+        <v>45.38952018322354</v>
       </c>
       <c r="I19" t="n">
         <v>45.38952018322354</v>
@@ -5700,25 +5700,25 @@
         <v>1762.584389962816</v>
       </c>
       <c r="S19" t="n">
-        <v>1762.584389962816</v>
+        <v>1574.933597391785</v>
       </c>
       <c r="T19" t="n">
-        <v>1762.584389962816</v>
+        <v>1342.932692083658</v>
       </c>
       <c r="U19" t="n">
-        <v>1477.193063905019</v>
+        <v>1057.541366025861</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.193063905019</v>
+        <v>1057.541366025861</v>
       </c>
       <c r="W19" t="n">
-        <v>1193.862661836196</v>
+        <v>774.2109639570385</v>
       </c>
       <c r="X19" t="n">
-        <v>976.2455194303855</v>
+        <v>556.4357699060208</v>
       </c>
       <c r="Y19" t="n">
-        <v>976.2455194303855</v>
+        <v>556.4357699060208</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1241.268417132075</v>
+        <v>1146.268748369642</v>
       </c>
       <c r="C20" t="n">
-        <v>1241.268417132075</v>
+        <v>1146.268748369642</v>
       </c>
       <c r="D20" t="n">
-        <v>1241.268417132075</v>
+        <v>760.82761958631</v>
       </c>
       <c r="E20" t="n">
-        <v>1241.268417132075</v>
+        <v>760.82761958631</v>
       </c>
       <c r="F20" t="n">
-        <v>824.3739786620529</v>
+        <v>760.82761958631</v>
       </c>
       <c r="G20" t="n">
-        <v>413.1511948206817</v>
+        <v>349.6048357449388</v>
       </c>
       <c r="H20" t="n">
-        <v>108.9358792589664</v>
+        <v>45.38952018322354</v>
       </c>
       <c r="I20" t="n">
         <v>45.38952018322354</v>
       </c>
       <c r="J20" t="n">
-        <v>90.26256305552079</v>
+        <v>351.4153755272715</v>
       </c>
       <c r="K20" t="n">
-        <v>190.4956590446062</v>
+        <v>537.5106498368145</v>
       </c>
       <c r="L20" t="n">
-        <v>338.8298230433605</v>
+        <v>685.8448138355689</v>
       </c>
       <c r="M20" t="n">
-        <v>900.5251353107518</v>
+        <v>871.4802865564174</v>
       </c>
       <c r="N20" t="n">
-        <v>1462.220447578143</v>
+        <v>1063.118510748042</v>
       </c>
       <c r="O20" t="n">
-        <v>1672.484035645353</v>
+        <v>1235.4091318211</v>
       </c>
       <c r="P20" t="n">
         <v>1797.104444088492</v>
@@ -5782,22 +5782,22 @@
         <v>2147.169558546608</v>
       </c>
       <c r="T20" t="n">
-        <v>1932.161182094188</v>
+        <v>2147.169558546608</v>
       </c>
       <c r="U20" t="n">
-        <v>1932.161182094188</v>
+        <v>2147.169558546608</v>
       </c>
       <c r="V20" t="n">
-        <v>1590.054372797706</v>
+        <v>1805.062749250126</v>
       </c>
       <c r="W20" t="n">
-        <v>1241.268417132075</v>
+        <v>1805.062749250126</v>
       </c>
       <c r="X20" t="n">
-        <v>1241.268417132075</v>
+        <v>1805.062749250126</v>
       </c>
       <c r="Y20" t="n">
-        <v>1241.268417132075</v>
+        <v>1546.763494081039</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>256.3340221069587</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3121805307049</v>
+        <v>137.3121805307055</v>
       </c>
       <c r="H21" t="n">
-        <v>59.03943047711695</v>
+        <v>59.03943047711758</v>
       </c>
       <c r="I21" t="n">
         <v>45.38952018322354</v>
       </c>
       <c r="J21" t="n">
-        <v>59.8839965847997</v>
+        <v>254.6189915645271</v>
       </c>
       <c r="K21" t="n">
-        <v>543.8981135147551</v>
+        <v>330.192996452256</v>
       </c>
       <c r="L21" t="n">
-        <v>675.6263412486301</v>
+        <v>461.921224186131</v>
       </c>
       <c r="M21" t="n">
-        <v>958.5304594800705</v>
+        <v>628.2238170444323</v>
       </c>
       <c r="N21" t="n">
-        <v>1520.225771747462</v>
+        <v>1189.919129311824</v>
       </c>
       <c r="O21" t="n">
-        <v>2081.921084014853</v>
+        <v>1667.998883445093</v>
       </c>
       <c r="P21" t="n">
-        <v>2189.972172411844</v>
+        <v>2229.694195712485</v>
       </c>
       <c r="Q21" t="n">
-        <v>2229.753985860536</v>
+        <v>2269.476009161177</v>
       </c>
       <c r="R21" t="n">
         <v>2269.476009161177</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>999.2379894268815</v>
+        <v>706.7885904280306</v>
       </c>
       <c r="C22" t="n">
-        <v>829.0328714928708</v>
+        <v>536.5834724940198</v>
       </c>
       <c r="D22" t="n">
-        <v>673.3997583953856</v>
+        <v>380.9503593965346</v>
       </c>
       <c r="E22" t="n">
-        <v>517.8409462545881</v>
+        <v>225.3915472557371</v>
       </c>
       <c r="F22" t="n">
-        <v>360.515011467561</v>
+        <v>225.3915472557371</v>
       </c>
       <c r="G22" t="n">
         <v>193.1311620725392</v>
@@ -5934,28 +5934,28 @@
         <v>1762.584389962816</v>
       </c>
       <c r="R22" t="n">
-        <v>1762.584389962816</v>
+        <v>1677.810959544162</v>
       </c>
       <c r="S22" t="n">
-        <v>1692.949395359337</v>
+        <v>1490.16016697313</v>
       </c>
       <c r="T22" t="n">
-        <v>1692.949395359337</v>
+        <v>1258.159261665004</v>
       </c>
       <c r="U22" t="n">
-        <v>1407.558069301539</v>
+        <v>972.7679356072064</v>
       </c>
       <c r="V22" t="n">
-        <v>1407.558069301539</v>
+        <v>706.7885904280306</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.558069301539</v>
+        <v>706.7885904280306</v>
       </c>
       <c r="X22" t="n">
-        <v>1407.558069301539</v>
+        <v>706.7885904280306</v>
       </c>
       <c r="Y22" t="n">
-        <v>1184.446008118183</v>
+        <v>706.7885904280306</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1177.722058056332</v>
+        <v>1554.523927881749</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.722058056332</v>
+        <v>1554.523927881749</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.722058056332</v>
+        <v>1169.082799098416</v>
       </c>
       <c r="E23" t="n">
-        <v>1177.722058056332</v>
+        <v>766.499274214961</v>
       </c>
       <c r="F23" t="n">
-        <v>760.82761958631</v>
+        <v>349.6048357449388</v>
       </c>
       <c r="G23" t="n">
         <v>349.6048357449388</v>
@@ -5989,28 +5989,28 @@
         <v>45.38952018322354</v>
       </c>
       <c r="J23" t="n">
-        <v>90.26256305552079</v>
+        <v>351.4153755272715</v>
       </c>
       <c r="K23" t="n">
-        <v>190.4956590446062</v>
+        <v>451.6484715163569</v>
       </c>
       <c r="L23" t="n">
-        <v>338.8298230433605</v>
+        <v>599.9826355151113</v>
       </c>
       <c r="M23" t="n">
-        <v>900.5251353107518</v>
+        <v>785.6181082359599</v>
       </c>
       <c r="N23" t="n">
-        <v>1462.220447578143</v>
+        <v>977.2563324275847</v>
       </c>
       <c r="O23" t="n">
-        <v>1634.511068651201</v>
+        <v>1235.4091318211</v>
       </c>
       <c r="P23" t="n">
-        <v>1879.304286077312</v>
+        <v>1797.104444088492</v>
       </c>
       <c r="Q23" t="n">
-        <v>2269.476009161177</v>
+        <v>2187.276167172357</v>
       </c>
       <c r="R23" t="n">
         <v>2269.476009161177</v>
@@ -6025,16 +6025,16 @@
         <v>2269.476009161177</v>
       </c>
       <c r="V23" t="n">
-        <v>1967.669408834672</v>
+        <v>2269.476009161177</v>
       </c>
       <c r="W23" t="n">
-        <v>1967.669408834672</v>
+        <v>2269.476009161177</v>
       </c>
       <c r="X23" t="n">
-        <v>1578.216803767729</v>
+        <v>1955.018673593146</v>
       </c>
       <c r="Y23" t="n">
-        <v>1578.216803767729</v>
+        <v>1955.018673593146</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>797.9555169313662</v>
+        <v>797.955516931366</v>
       </c>
       <c r="C24" t="n">
-        <v>647.3012864914583</v>
+        <v>647.3012864914582</v>
       </c>
       <c r="D24" t="n">
         <v>517.2123191129385</v>
       </c>
       <c r="E24" t="n">
-        <v>380.7658282238262</v>
+        <v>380.7658282238263</v>
       </c>
       <c r="F24" t="n">
         <v>256.3340221069581</v>
@@ -6062,58 +6062,58 @@
         <v>137.3121805307049</v>
       </c>
       <c r="H24" t="n">
-        <v>59.03943047711692</v>
+        <v>59.03943047711695</v>
       </c>
       <c r="I24" t="n">
         <v>45.38952018322354</v>
       </c>
       <c r="J24" t="n">
-        <v>59.8839965847997</v>
+        <v>254.6189915645271</v>
       </c>
       <c r="K24" t="n">
-        <v>135.4580014725287</v>
+        <v>738.6331084944825</v>
       </c>
       <c r="L24" t="n">
-        <v>267.1862292064037</v>
+        <v>870.3613362283575</v>
       </c>
       <c r="M24" t="n">
-        <v>828.8815414737949</v>
+        <v>1036.663929086659</v>
       </c>
       <c r="N24" t="n">
-        <v>1195.782408568216</v>
+        <v>1216.733675924346</v>
       </c>
       <c r="O24" t="n">
-        <v>1757.477720835608</v>
+        <v>1367.01944792113</v>
       </c>
       <c r="P24" t="n">
-        <v>1865.528809232598</v>
+        <v>1865.528809232597</v>
       </c>
       <c r="Q24" t="n">
-        <v>2229.753985860536</v>
+        <v>2229.753985860535</v>
       </c>
       <c r="R24" t="n">
-        <v>2269.476009161177</v>
+        <v>2269.476009161176</v>
       </c>
       <c r="S24" t="n">
         <v>2153.825287544474</v>
       </c>
       <c r="T24" t="n">
-        <v>1981.025248845926</v>
+        <v>1981.025248845925</v>
       </c>
       <c r="U24" t="n">
-        <v>1771.030393442455</v>
+        <v>1771.030393442454</v>
       </c>
       <c r="V24" t="n">
-        <v>1548.490391813522</v>
+        <v>1548.490391813521</v>
       </c>
       <c r="W24" t="n">
-        <v>1318.373145946809</v>
+        <v>1318.373145946808</v>
       </c>
       <c r="X24" t="n">
         <v>1129.06606829682</v>
       </c>
       <c r="Y24" t="n">
-        <v>949.7518513723276</v>
+        <v>949.7518513723273</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1245.57923258855</v>
+        <v>843.6048763293963</v>
       </c>
       <c r="C25" t="n">
-        <v>1131.657568049489</v>
+        <v>673.3997583953856</v>
       </c>
       <c r="D25" t="n">
-        <v>1131.657568049489</v>
+        <v>673.3997583953856</v>
       </c>
       <c r="E25" t="n">
-        <v>1131.657568049489</v>
+        <v>517.8409462545881</v>
       </c>
       <c r="F25" t="n">
-        <v>974.331633262462</v>
+        <v>360.515011467561</v>
       </c>
       <c r="G25" t="n">
-        <v>806.9477838674402</v>
+        <v>193.1311620725392</v>
       </c>
       <c r="H25" t="n">
-        <v>659.2061419781246</v>
+        <v>45.38952018322354</v>
       </c>
       <c r="I25" t="n">
-        <v>552.2811393815846</v>
+        <v>45.38952018322354</v>
       </c>
       <c r="J25" t="n">
-        <v>582.806538500337</v>
+        <v>75.91491930197596</v>
       </c>
       <c r="K25" t="n">
-        <v>763.7315926143815</v>
+        <v>256.8399734160205</v>
       </c>
       <c r="L25" t="n">
-        <v>1054.660333635998</v>
+        <v>547.7687144376368</v>
       </c>
       <c r="M25" t="n">
-        <v>1374.645894308358</v>
+        <v>867.7542751099966</v>
       </c>
       <c r="N25" t="n">
-        <v>1688.350566594501</v>
+        <v>1181.45894739614</v>
       </c>
       <c r="O25" t="n">
-        <v>1971.607095935723</v>
+        <v>1464.715476737362</v>
       </c>
       <c r="P25" t="n">
-        <v>2194.636120320016</v>
+        <v>1687.744501121655</v>
       </c>
       <c r="Q25" t="n">
-        <v>2269.476009161177</v>
+        <v>1762.584389962816</v>
       </c>
       <c r="R25" t="n">
-        <v>2184.702578742522</v>
+        <v>1762.584389962816</v>
       </c>
       <c r="S25" t="n">
-        <v>1997.051786171491</v>
+        <v>1762.584389962816</v>
       </c>
       <c r="T25" t="n">
-        <v>1765.050880863364</v>
+        <v>1762.584389962816</v>
       </c>
       <c r="U25" t="n">
-        <v>1479.659554805567</v>
+        <v>1517.90430138323</v>
       </c>
       <c r="V25" t="n">
-        <v>1479.659554805567</v>
+        <v>1251.924956204054</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.659554805567</v>
+        <v>1251.924956204054</v>
       </c>
       <c r="X25" t="n">
-        <v>1245.57923258855</v>
+        <v>1251.924956204054</v>
       </c>
       <c r="Y25" t="n">
-        <v>1245.57923258855</v>
+        <v>1028.812895020698</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1472.490554370381</v>
+        <v>1520.572991683144</v>
       </c>
       <c r="C26" t="n">
-        <v>1079.315052873312</v>
+        <v>1520.572991683144</v>
       </c>
       <c r="D26" t="n">
-        <v>1079.315052873312</v>
+        <v>1520.572991683144</v>
       </c>
       <c r="E26" t="n">
-        <v>676.7315279898562</v>
+        <v>1117.989466799688</v>
       </c>
       <c r="F26" t="n">
-        <v>259.837089519834</v>
+        <v>701.095028329666</v>
       </c>
       <c r="G26" t="n">
-        <v>45.38952018322354</v>
+        <v>413.1511948206817</v>
       </c>
       <c r="H26" t="n">
-        <v>45.38952018322354</v>
+        <v>108.9358792589664</v>
       </c>
       <c r="I26" t="n">
         <v>45.38952018322354</v>
@@ -6229,49 +6229,49 @@
         <v>351.4153755272715</v>
       </c>
       <c r="K26" t="n">
-        <v>451.6484715163569</v>
+        <v>913.1106877946628</v>
       </c>
       <c r="L26" t="n">
-        <v>599.9826355151113</v>
+        <v>1061.444851793417</v>
       </c>
       <c r="M26" t="n">
-        <v>1161.677947782503</v>
+        <v>1247.080324514266</v>
       </c>
       <c r="N26" t="n">
-        <v>1723.373260049894</v>
+        <v>1438.71854870589</v>
       </c>
       <c r="O26" t="n">
-        <v>1895.663881122952</v>
+        <v>1645.508245385078</v>
       </c>
       <c r="P26" t="n">
-        <v>2020.284289566091</v>
+        <v>2207.203557652469</v>
       </c>
       <c r="Q26" t="n">
-        <v>2187.276167172357</v>
+        <v>2269.476009161177</v>
       </c>
       <c r="R26" t="n">
         <v>2269.476009161177</v>
       </c>
       <c r="S26" t="n">
-        <v>2269.476009161177</v>
+        <v>2147.169558546608</v>
       </c>
       <c r="T26" t="n">
-        <v>2269.476009161177</v>
+        <v>2147.169558546608</v>
       </c>
       <c r="U26" t="n">
-        <v>2269.476009161177</v>
+        <v>1891.572026714856</v>
       </c>
       <c r="V26" t="n">
-        <v>2269.476009161177</v>
+        <v>1891.572026714856</v>
       </c>
       <c r="W26" t="n">
-        <v>2269.476009161177</v>
+        <v>1520.572991683144</v>
       </c>
       <c r="X26" t="n">
-        <v>2269.476009161177</v>
+        <v>1520.572991683144</v>
       </c>
       <c r="Y26" t="n">
-        <v>1872.985300081778</v>
+        <v>1520.572991683144</v>
       </c>
     </row>
     <row r="27">
@@ -6281,58 +6281,58 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>797.9555169313662</v>
+        <v>797.9555169313667</v>
       </c>
       <c r="C27" t="n">
-        <v>647.3012864914583</v>
+        <v>647.3012864914588</v>
       </c>
       <c r="D27" t="n">
-        <v>517.2123191129385</v>
+        <v>517.212319112939</v>
       </c>
       <c r="E27" t="n">
-        <v>380.7658282238262</v>
+        <v>380.7658282238267</v>
       </c>
       <c r="F27" t="n">
-        <v>256.3340221069579</v>
+        <v>256.3340221069584</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3121805307048</v>
+        <v>137.3121805307053</v>
       </c>
       <c r="H27" t="n">
-        <v>59.03943047711695</v>
+        <v>59.03943047711709</v>
       </c>
       <c r="I27" t="n">
         <v>45.38952018322354</v>
       </c>
       <c r="J27" t="n">
-        <v>59.8839965847997</v>
+        <v>254.6189915645271</v>
       </c>
       <c r="K27" t="n">
-        <v>135.4580014725287</v>
+        <v>675.4471575385596</v>
       </c>
       <c r="L27" t="n">
-        <v>267.1862292064037</v>
+        <v>807.1753852724346</v>
       </c>
       <c r="M27" t="n">
-        <v>828.8815414737949</v>
+        <v>973.4779781307359</v>
       </c>
       <c r="N27" t="n">
-        <v>1390.576853741186</v>
+        <v>1153.547724968423</v>
       </c>
       <c r="O27" t="n">
-        <v>1952.272166008577</v>
+        <v>1303.833496965207</v>
       </c>
       <c r="P27" t="n">
-        <v>2060.323254405568</v>
+        <v>1865.528809232598</v>
       </c>
       <c r="Q27" t="n">
-        <v>2269.476009161177</v>
+        <v>2229.753985860536</v>
       </c>
       <c r="R27" t="n">
         <v>2269.476009161177</v>
       </c>
       <c r="S27" t="n">
-        <v>2153.825287544474</v>
+        <v>2153.825287544475</v>
       </c>
       <c r="T27" t="n">
         <v>1981.025248845926</v>
@@ -6347,10 +6347,10 @@
         <v>1318.373145946809</v>
       </c>
       <c r="X27" t="n">
-        <v>1129.06606829682</v>
+        <v>1129.066068296821</v>
       </c>
       <c r="Y27" t="n">
-        <v>949.7518513723276</v>
+        <v>949.751851372328</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>238.6900279485209</v>
+        <v>633.7115659520571</v>
       </c>
       <c r="C28" t="n">
-        <v>238.6900279485209</v>
+        <v>463.5064480180462</v>
       </c>
       <c r="D28" t="n">
-        <v>238.6900279485209</v>
+        <v>307.873334920561</v>
       </c>
       <c r="E28" t="n">
-        <v>238.6900279485209</v>
+        <v>152.3145227797635</v>
       </c>
       <c r="F28" t="n">
-        <v>238.6900279485209</v>
+        <v>152.3145227797635</v>
       </c>
       <c r="G28" t="n">
-        <v>238.6900279485209</v>
+        <v>152.3145227797635</v>
       </c>
       <c r="H28" t="n">
-        <v>90.94838605920526</v>
+        <v>152.3145227797635</v>
       </c>
       <c r="I28" t="n">
         <v>45.38952018322354</v>
@@ -6411,25 +6411,25 @@
         <v>1762.584389962816</v>
       </c>
       <c r="S28" t="n">
-        <v>1762.584389962816</v>
+        <v>1574.933597391785</v>
       </c>
       <c r="T28" t="n">
-        <v>1530.58348465469</v>
+        <v>1342.932692083658</v>
       </c>
       <c r="U28" t="n">
-        <v>1245.192158596893</v>
+        <v>1057.541366025861</v>
       </c>
       <c r="V28" t="n">
-        <v>979.2128134177168</v>
+        <v>1057.541366025861</v>
       </c>
       <c r="W28" t="n">
-        <v>695.8824113488945</v>
+        <v>1057.541366025861</v>
       </c>
       <c r="X28" t="n">
-        <v>461.8020891318776</v>
+        <v>823.461043808844</v>
       </c>
       <c r="Y28" t="n">
-        <v>238.6900279485209</v>
+        <v>818.9195846433583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>766.4228140546427</v>
+        <v>1637.812459188452</v>
       </c>
       <c r="C29" t="n">
-        <v>373.2473125575733</v>
+        <v>1244.636957691383</v>
       </c>
       <c r="D29" t="n">
-        <v>373.2473125575733</v>
+        <v>859.1958289080503</v>
       </c>
       <c r="E29" t="n">
-        <v>373.2473125575733</v>
+        <v>456.6123040245948</v>
       </c>
       <c r="F29" t="n">
-        <v>373.2473125575733</v>
+        <v>456.6123040245948</v>
       </c>
       <c r="G29" t="n">
-        <v>373.2473125575733</v>
+        <v>45.38952018322354</v>
       </c>
       <c r="H29" t="n">
-        <v>108.9358792589664</v>
+        <v>45.38952018322354</v>
       </c>
       <c r="I29" t="n">
         <v>45.38952018322354</v>
       </c>
       <c r="J29" t="n">
-        <v>90.26256305552079</v>
+        <v>351.4153755272715</v>
       </c>
       <c r="K29" t="n">
-        <v>190.4956590446062</v>
+        <v>619.710491825635</v>
       </c>
       <c r="L29" t="n">
-        <v>752.1909713119975</v>
+        <v>768.0446558243893</v>
       </c>
       <c r="M29" t="n">
-        <v>1313.886283579389</v>
+        <v>953.6801285452378</v>
       </c>
       <c r="N29" t="n">
-        <v>1875.58159584678</v>
+        <v>1145.318352736863</v>
       </c>
       <c r="O29" t="n">
-        <v>2082.583149209331</v>
+        <v>1317.608973809921</v>
       </c>
       <c r="P29" t="n">
-        <v>2207.203557652469</v>
+        <v>1879.304286077312</v>
       </c>
       <c r="Q29" t="n">
         <v>2269.476009161177</v>
@@ -6502,13 +6502,13 @@
         <v>1927.369199864695</v>
       </c>
       <c r="W29" t="n">
-        <v>1556.370164832983</v>
+        <v>1927.369199864695</v>
       </c>
       <c r="X29" t="n">
-        <v>1166.91755976604</v>
+        <v>1927.369199864695</v>
       </c>
       <c r="Y29" t="n">
-        <v>1166.91755976604</v>
+        <v>1637.812459188452</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>59.8839965847997</v>
       </c>
       <c r="K30" t="n">
-        <v>135.4580014725287</v>
+        <v>543.8981135147551</v>
       </c>
       <c r="L30" t="n">
-        <v>396.8351472126792</v>
+        <v>1105.593425782146</v>
       </c>
       <c r="M30" t="n">
-        <v>958.5304594800705</v>
+        <v>1271.896018640448</v>
       </c>
       <c r="N30" t="n">
-        <v>1520.225771747462</v>
+        <v>1451.965765478135</v>
       </c>
       <c r="O30" t="n">
-        <v>2081.921084014853</v>
+        <v>1602.251537474919</v>
       </c>
       <c r="P30" t="n">
-        <v>2189.972172411844</v>
+        <v>2163.94684974231</v>
       </c>
       <c r="Q30" t="n">
-        <v>2229.753985860536</v>
+        <v>2269.476009161177</v>
       </c>
       <c r="R30" t="n">
         <v>2269.476009161177</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.2128713878452</v>
+        <v>489.9034901087961</v>
       </c>
       <c r="C31" t="n">
-        <v>624.7659488511281</v>
+        <v>319.6983721747853</v>
       </c>
       <c r="D31" t="n">
-        <v>624.7659488511281</v>
+        <v>319.6983721747853</v>
       </c>
       <c r="E31" t="n">
-        <v>624.7659488511281</v>
+        <v>319.6983721747853</v>
       </c>
       <c r="F31" t="n">
-        <v>467.440014064101</v>
+        <v>319.6983721747853</v>
       </c>
       <c r="G31" t="n">
-        <v>300.0561646690792</v>
+        <v>152.3145227797635</v>
       </c>
       <c r="H31" t="n">
         <v>152.3145227797635</v>
@@ -6645,28 +6645,28 @@
         <v>1762.584389962816</v>
       </c>
       <c r="R31" t="n">
-        <v>1677.810959544162</v>
+        <v>1762.584389962816</v>
       </c>
       <c r="S31" t="n">
-        <v>1677.810959544162</v>
+        <v>1574.933597391785</v>
       </c>
       <c r="T31" t="n">
-        <v>1677.810959544162</v>
+        <v>1342.932692083658</v>
       </c>
       <c r="U31" t="n">
-        <v>1677.810959544162</v>
+        <v>1342.932692083658</v>
       </c>
       <c r="V31" t="n">
-        <v>1411.831614364986</v>
+        <v>1076.953346904483</v>
       </c>
       <c r="W31" t="n">
-        <v>1128.501212296163</v>
+        <v>1076.953346904483</v>
       </c>
       <c r="X31" t="n">
-        <v>894.4208900791465</v>
+        <v>842.8730246874658</v>
       </c>
       <c r="Y31" t="n">
-        <v>894.4208900791465</v>
+        <v>675.1115088000973</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1219.055337765993</v>
+        <v>438.5650216802929</v>
       </c>
       <c r="C32" t="n">
-        <v>1219.055337765993</v>
+        <v>45.38952018322354</v>
       </c>
       <c r="D32" t="n">
-        <v>1219.055337765993</v>
+        <v>45.38952018322354</v>
       </c>
       <c r="E32" t="n">
-        <v>816.471812882538</v>
+        <v>45.38952018322354</v>
       </c>
       <c r="F32" t="n">
-        <v>399.5773744125157</v>
+        <v>45.38952018322354</v>
       </c>
       <c r="G32" t="n">
-        <v>349.6048357449388</v>
+        <v>45.38952018322354</v>
       </c>
       <c r="H32" t="n">
         <v>45.38952018322354</v>
@@ -6703,25 +6703,25 @@
         <v>351.4153755272715</v>
       </c>
       <c r="K32" t="n">
-        <v>451.6484715163569</v>
+        <v>913.1106877946628</v>
       </c>
       <c r="L32" t="n">
-        <v>685.8448138355689</v>
+        <v>1205.119559648642</v>
       </c>
       <c r="M32" t="n">
-        <v>871.4802865564174</v>
+        <v>1390.75503236949</v>
       </c>
       <c r="N32" t="n">
-        <v>1063.118510748042</v>
+        <v>1582.393256561115</v>
       </c>
       <c r="O32" t="n">
-        <v>1235.4091318211</v>
+        <v>1754.683877634174</v>
       </c>
       <c r="P32" t="n">
-        <v>1797.104444088492</v>
+        <v>1879.304286077312</v>
       </c>
       <c r="Q32" t="n">
-        <v>2187.276167172357</v>
+        <v>2269.476009161177</v>
       </c>
       <c r="R32" t="n">
         <v>2269.476009161177</v>
@@ -6730,22 +6730,22 @@
         <v>2147.169558546608</v>
       </c>
       <c r="T32" t="n">
-        <v>1932.161182094188</v>
+        <v>1996.002116569744</v>
       </c>
       <c r="U32" t="n">
-        <v>1932.161182094188</v>
+        <v>1996.002116569744</v>
       </c>
       <c r="V32" t="n">
-        <v>1590.054372797706</v>
+        <v>1996.002116569744</v>
       </c>
       <c r="W32" t="n">
-        <v>1219.055337765993</v>
+        <v>1625.003081538032</v>
       </c>
       <c r="X32" t="n">
-        <v>1219.055337765993</v>
+        <v>1235.550476471089</v>
       </c>
       <c r="Y32" t="n">
-        <v>1219.055337765993</v>
+        <v>839.0597673916898</v>
       </c>
     </row>
     <row r="33">
@@ -6755,58 +6755,58 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>797.9555169313667</v>
+        <v>797.9555169313662</v>
       </c>
       <c r="C33" t="n">
-        <v>647.3012864914588</v>
+        <v>647.3012864914583</v>
       </c>
       <c r="D33" t="n">
-        <v>517.212319112939</v>
+        <v>517.2123191129385</v>
       </c>
       <c r="E33" t="n">
-        <v>380.7658282238267</v>
+        <v>380.7658282238262</v>
       </c>
       <c r="F33" t="n">
-        <v>256.3340221069584</v>
+        <v>256.3340221069579</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3121805307053</v>
+        <v>137.3121805307051</v>
       </c>
       <c r="H33" t="n">
-        <v>59.03943047711709</v>
+        <v>59.03943047711695</v>
       </c>
       <c r="I33" t="n">
         <v>45.38952018322354</v>
       </c>
       <c r="J33" t="n">
-        <v>59.8839965847997</v>
+        <v>231.1550639092453</v>
       </c>
       <c r="K33" t="n">
-        <v>135.4580014725287</v>
+        <v>715.1691808392006</v>
       </c>
       <c r="L33" t="n">
-        <v>697.1533137399199</v>
+        <v>846.8974085730756</v>
       </c>
       <c r="M33" t="n">
-        <v>863.4559065982212</v>
+        <v>1013.200001431377</v>
       </c>
       <c r="N33" t="n">
-        <v>1425.151218865612</v>
+        <v>1193.269748269064</v>
       </c>
       <c r="O33" t="n">
-        <v>1628.276860144452</v>
+        <v>1343.555520265848</v>
       </c>
       <c r="P33" t="n">
-        <v>2189.972172411844</v>
+        <v>1905.250832533239</v>
       </c>
       <c r="Q33" t="n">
-        <v>2229.753985860536</v>
+        <v>2269.476009161177</v>
       </c>
       <c r="R33" t="n">
         <v>2269.476009161177</v>
       </c>
       <c r="S33" t="n">
-        <v>2153.825287544475</v>
+        <v>2153.825287544474</v>
       </c>
       <c r="T33" t="n">
         <v>1981.025248845926</v>
@@ -6821,10 +6821,10 @@
         <v>1318.373145946809</v>
       </c>
       <c r="X33" t="n">
-        <v>1129.066068296821</v>
+        <v>1129.06606829682</v>
       </c>
       <c r="Y33" t="n">
-        <v>949.751851372328</v>
+        <v>949.7518513723276</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>371.2277512147195</v>
+        <v>215.5946381172343</v>
       </c>
       <c r="C34" t="n">
-        <v>201.0226332807088</v>
+        <v>45.38952018322354</v>
       </c>
       <c r="D34" t="n">
         <v>45.38952018322354</v>
@@ -6885,25 +6885,25 @@
         <v>1762.584389962816</v>
       </c>
       <c r="S34" t="n">
-        <v>1574.933597391785</v>
+        <v>1690.616696605814</v>
       </c>
       <c r="T34" t="n">
-        <v>1342.932692083658</v>
+        <v>1458.615791297688</v>
       </c>
       <c r="U34" t="n">
-        <v>1057.541366025861</v>
+        <v>1173.22446523989</v>
       </c>
       <c r="V34" t="n">
-        <v>1013.628153306394</v>
+        <v>907.2451200607147</v>
       </c>
       <c r="W34" t="n">
-        <v>1013.628153306394</v>
+        <v>623.9147179918923</v>
       </c>
       <c r="X34" t="n">
-        <v>779.5478310893775</v>
+        <v>623.9147179918923</v>
       </c>
       <c r="Y34" t="n">
-        <v>556.4357699060208</v>
+        <v>400.8026568085356</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>637.923715066953</v>
+        <v>1276.090267378072</v>
       </c>
       <c r="C35" t="n">
-        <v>637.923715066953</v>
+        <v>1276.090267378072</v>
       </c>
       <c r="D35" t="n">
-        <v>456.6123040245948</v>
+        <v>1276.090267378072</v>
       </c>
       <c r="E35" t="n">
-        <v>456.6123040245948</v>
+        <v>873.506742494617</v>
       </c>
       <c r="F35" t="n">
         <v>456.6123040245948</v>
@@ -6943,46 +6943,46 @@
         <v>451.6484715163569</v>
       </c>
       <c r="L35" t="n">
-        <v>768.0446558243893</v>
+        <v>599.9826355151113</v>
       </c>
       <c r="M35" t="n">
-        <v>953.6801285452378</v>
+        <v>871.4802865564174</v>
       </c>
       <c r="N35" t="n">
-        <v>1145.318352736863</v>
+        <v>1063.118510748042</v>
       </c>
       <c r="O35" t="n">
-        <v>1317.608973809921</v>
+        <v>1235.4091318211</v>
       </c>
       <c r="P35" t="n">
-        <v>1879.304286077312</v>
+        <v>1797.104444088492</v>
       </c>
       <c r="Q35" t="n">
-        <v>2269.476009161177</v>
+        <v>2187.276167172357</v>
       </c>
       <c r="R35" t="n">
         <v>2269.476009161177</v>
       </c>
       <c r="S35" t="n">
-        <v>2269.476009161177</v>
+        <v>2147.190921373641</v>
       </c>
       <c r="T35" t="n">
-        <v>2054.467632708757</v>
+        <v>1932.182544921221</v>
       </c>
       <c r="U35" t="n">
-        <v>1798.870100877006</v>
+        <v>1676.585013089469</v>
       </c>
       <c r="V35" t="n">
-        <v>1798.870100877006</v>
+        <v>1676.585013089469</v>
       </c>
       <c r="W35" t="n">
-        <v>1427.871065845293</v>
+        <v>1676.585013089469</v>
       </c>
       <c r="X35" t="n">
-        <v>1038.41846077835</v>
+        <v>1676.585013089469</v>
       </c>
       <c r="Y35" t="n">
-        <v>1038.41846077835</v>
+        <v>1676.585013089469</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>256.3340221069584</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3121805307049</v>
+        <v>137.3121805307053</v>
       </c>
       <c r="H36" t="n">
-        <v>59.03943047711695</v>
+        <v>59.03943047711709</v>
       </c>
       <c r="I36" t="n">
         <v>45.38952018322354</v>
       </c>
       <c r="J36" t="n">
-        <v>59.8839965847997</v>
+        <v>254.6189915645271</v>
       </c>
       <c r="K36" t="n">
-        <v>135.4580014725287</v>
+        <v>675.4471575385596</v>
       </c>
       <c r="L36" t="n">
-        <v>267.1862292064037</v>
+        <v>807.1753852724346</v>
       </c>
       <c r="M36" t="n">
-        <v>828.8815414737949</v>
+        <v>973.4779781307359</v>
       </c>
       <c r="N36" t="n">
-        <v>1235.504431868857</v>
+        <v>1153.547724968423</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.199744136249</v>
+        <v>1303.833496965207</v>
       </c>
       <c r="P36" t="n">
-        <v>1905.250832533239</v>
+        <v>1865.528809232598</v>
       </c>
       <c r="Q36" t="n">
-        <v>2269.476009161177</v>
+        <v>2229.753985860536</v>
       </c>
       <c r="R36" t="n">
         <v>2269.476009161177</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>285.4829145653458</v>
+        <v>516.0738236083585</v>
       </c>
       <c r="C37" t="n">
-        <v>285.4829145653458</v>
+        <v>516.0738236083585</v>
       </c>
       <c r="D37" t="n">
-        <v>129.8498014678606</v>
+        <v>516.0738236083585</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8498014678606</v>
+        <v>360.515011467561</v>
       </c>
       <c r="F37" t="n">
-        <v>129.8498014678606</v>
+        <v>360.515011467561</v>
       </c>
       <c r="G37" t="n">
-        <v>129.8498014678606</v>
+        <v>193.1311620725392</v>
       </c>
       <c r="H37" t="n">
         <v>45.38952018322354</v>
@@ -7119,28 +7119,28 @@
         <v>1762.584389962816</v>
       </c>
       <c r="R37" t="n">
-        <v>1762.584389962816</v>
+        <v>1677.810959544162</v>
       </c>
       <c r="S37" t="n">
-        <v>1762.584389962816</v>
+        <v>1490.16016697313</v>
       </c>
       <c r="T37" t="n">
-        <v>1762.584389962816</v>
+        <v>1490.16016697313</v>
       </c>
       <c r="U37" t="n">
-        <v>1477.193063905019</v>
+        <v>1250.591589547658</v>
       </c>
       <c r="V37" t="n">
-        <v>1211.213718725843</v>
+        <v>984.6122443684822</v>
       </c>
       <c r="W37" t="n">
-        <v>927.8833166570207</v>
+        <v>701.2818422996597</v>
       </c>
       <c r="X37" t="n">
-        <v>693.8029944400038</v>
+        <v>701.2818422996597</v>
       </c>
       <c r="Y37" t="n">
-        <v>470.6909332566471</v>
+        <v>701.2818422996597</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1868.98126344978</v>
+        <v>735.045964528271</v>
       </c>
       <c r="C38" t="n">
-        <v>1475.805761952711</v>
+        <v>735.045964528271</v>
       </c>
       <c r="D38" t="n">
-        <v>1090.364633169378</v>
+        <v>349.6048357449388</v>
       </c>
       <c r="E38" t="n">
-        <v>687.7811082859228</v>
+        <v>349.6048357449388</v>
       </c>
       <c r="F38" t="n">
-        <v>270.8866698159005</v>
+        <v>349.6048357449388</v>
       </c>
       <c r="G38" t="n">
-        <v>45.38952018322354</v>
+        <v>349.6048357449388</v>
       </c>
       <c r="H38" t="n">
         <v>45.38952018322354</v>
@@ -7174,22 +7174,22 @@
         <v>45.38952018322354</v>
       </c>
       <c r="J38" t="n">
-        <v>351.4153755272715</v>
+        <v>90.26256305552079</v>
       </c>
       <c r="K38" t="n">
-        <v>667.3807044555547</v>
+        <v>651.9578753229121</v>
       </c>
       <c r="L38" t="n">
-        <v>815.714868454309</v>
+        <v>800.2920393216664</v>
       </c>
       <c r="M38" t="n">
-        <v>1001.350341175157</v>
+        <v>985.927512042515</v>
       </c>
       <c r="N38" t="n">
-        <v>1192.988565366782</v>
+        <v>1177.56573623414</v>
       </c>
       <c r="O38" t="n">
-        <v>1754.683877634174</v>
+        <v>1349.856357307198</v>
       </c>
       <c r="P38" t="n">
         <v>1879.304286077312</v>
@@ -7204,22 +7204,22 @@
         <v>2269.476009161177</v>
       </c>
       <c r="T38" t="n">
-        <v>2269.476009161177</v>
+        <v>2093.20194575516</v>
       </c>
       <c r="U38" t="n">
-        <v>2269.476009161177</v>
+        <v>1837.604413923408</v>
       </c>
       <c r="V38" t="n">
-        <v>2269.476009161177</v>
+        <v>1495.497604626927</v>
       </c>
       <c r="W38" t="n">
-        <v>2269.476009161177</v>
+        <v>1124.498569595214</v>
       </c>
       <c r="X38" t="n">
-        <v>2269.476009161177</v>
+        <v>735.045964528271</v>
       </c>
       <c r="Y38" t="n">
-        <v>2269.476009161177</v>
+        <v>735.045964528271</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>797.955516931366</v>
+        <v>797.9555169313667</v>
       </c>
       <c r="C39" t="n">
         <v>647.3012864914582</v>
@@ -7253,52 +7253,52 @@
         <v>45.38952018322354</v>
       </c>
       <c r="J39" t="n">
-        <v>254.6189915645271</v>
+        <v>59.8839965847997</v>
       </c>
       <c r="K39" t="n">
-        <v>738.6331084944825</v>
+        <v>135.4580014725287</v>
       </c>
       <c r="L39" t="n">
-        <v>1300.328420761874</v>
+        <v>697.1533137399199</v>
       </c>
       <c r="M39" t="n">
-        <v>1791.287588481023</v>
+        <v>863.4559065982212</v>
       </c>
       <c r="N39" t="n">
-        <v>1971.35733531871</v>
+        <v>1425.151218865612</v>
       </c>
       <c r="O39" t="n">
-        <v>2121.643107315494</v>
+        <v>1986.846531133004</v>
       </c>
       <c r="P39" t="n">
-        <v>2229.694195712485</v>
+        <v>2094.897619529994</v>
       </c>
       <c r="Q39" t="n">
-        <v>2269.476009161177</v>
+        <v>2229.753985860536</v>
       </c>
       <c r="R39" t="n">
         <v>2269.476009161177</v>
       </c>
       <c r="S39" t="n">
-        <v>2153.825287544474</v>
+        <v>2153.825287544475</v>
       </c>
       <c r="T39" t="n">
-        <v>1981.025248845925</v>
+        <v>1981.025248845926</v>
       </c>
       <c r="U39" t="n">
-        <v>1771.030393442454</v>
+        <v>1771.030393442455</v>
       </c>
       <c r="V39" t="n">
-        <v>1548.490391813521</v>
+        <v>1548.490391813522</v>
       </c>
       <c r="W39" t="n">
-        <v>1318.373145946808</v>
+        <v>1318.373145946809</v>
       </c>
       <c r="X39" t="n">
-        <v>1129.06606829682</v>
+        <v>1129.066068296821</v>
       </c>
       <c r="Y39" t="n">
-        <v>949.7518513723273</v>
+        <v>949.751851372328</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>215.5946381172343</v>
+        <v>823.461043808844</v>
       </c>
       <c r="C40" t="n">
-        <v>45.38952018322354</v>
+        <v>823.461043808844</v>
       </c>
       <c r="D40" t="n">
-        <v>45.38952018322354</v>
+        <v>667.8279307113587</v>
       </c>
       <c r="E40" t="n">
-        <v>45.38952018322354</v>
+        <v>512.2691185705612</v>
       </c>
       <c r="F40" t="n">
-        <v>45.38952018322354</v>
+        <v>354.9431837835342</v>
       </c>
       <c r="G40" t="n">
-        <v>45.38952018322354</v>
+        <v>187.5593343885124</v>
       </c>
       <c r="H40" t="n">
         <v>45.38952018322354</v>
@@ -7356,28 +7356,28 @@
         <v>1762.584389962816</v>
       </c>
       <c r="R40" t="n">
-        <v>1677.810959544162</v>
+        <v>1762.584389962816</v>
       </c>
       <c r="S40" t="n">
-        <v>1677.810959544162</v>
+        <v>1574.933597391785</v>
       </c>
       <c r="T40" t="n">
-        <v>1677.810959544162</v>
+        <v>1342.932692083658</v>
       </c>
       <c r="U40" t="n">
-        <v>1407.304787456907</v>
+        <v>1057.541366025861</v>
       </c>
       <c r="V40" t="n">
-        <v>1141.325442277732</v>
+        <v>1057.541366025861</v>
       </c>
       <c r="W40" t="n">
-        <v>857.9950402089092</v>
+        <v>1057.541366025861</v>
       </c>
       <c r="X40" t="n">
-        <v>623.9147179918923</v>
+        <v>823.461043808844</v>
       </c>
       <c r="Y40" t="n">
-        <v>400.8026568085356</v>
+        <v>823.461043808844</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>565.8016031826614</v>
+        <v>428.2202947578775</v>
       </c>
       <c r="C41" t="n">
-        <v>172.626101685592</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="D41" t="n">
-        <v>172.626101685592</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="E41" t="n">
-        <v>172.626101685592</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="F41" t="n">
-        <v>172.626101685592</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="G41" t="n">
-        <v>172.626101685592</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="H41" t="n">
         <v>35.04479326080801</v>
@@ -7411,25 +7411,25 @@
         <v>35.04479326080801</v>
       </c>
       <c r="J41" t="n">
-        <v>341.070648604856</v>
+        <v>79.91783613310525</v>
       </c>
       <c r="K41" t="n">
-        <v>441.3037445939414</v>
+        <v>180.1509321221907</v>
       </c>
       <c r="L41" t="n">
-        <v>589.6379085926957</v>
+        <v>613.8302487246898</v>
       </c>
       <c r="M41" t="n">
-        <v>775.2733813135442</v>
+        <v>1047.509565327189</v>
       </c>
       <c r="N41" t="n">
-        <v>966.911605505169</v>
+        <v>1393.056182015496</v>
       </c>
       <c r="O41" t="n">
-        <v>1400.590922107668</v>
+        <v>1565.346803088554</v>
       </c>
       <c r="P41" t="n">
-        <v>1525.211330550807</v>
+        <v>1689.967211531692</v>
       </c>
       <c r="Q41" t="n">
         <v>1752.239663040401</v>
@@ -7438,25 +7438,25 @@
         <v>1752.239663040401</v>
       </c>
       <c r="S41" t="n">
-        <v>1752.239663040401</v>
+        <v>1629.933212425831</v>
       </c>
       <c r="T41" t="n">
-        <v>1752.239663040401</v>
+        <v>1629.933212425831</v>
       </c>
       <c r="U41" t="n">
-        <v>1752.239663040401</v>
+        <v>1374.33568059408</v>
       </c>
       <c r="V41" t="n">
-        <v>1752.239663040401</v>
+        <v>1032.228871297598</v>
       </c>
       <c r="W41" t="n">
-        <v>1752.239663040401</v>
+        <v>1032.228871297598</v>
       </c>
       <c r="X41" t="n">
-        <v>1362.787057973457</v>
+        <v>642.7762662306551</v>
       </c>
       <c r="Y41" t="n">
-        <v>966.2963488940584</v>
+        <v>428.2202947578775</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>490.7140262140615</v>
+        <v>576.6662880852159</v>
       </c>
       <c r="C42" t="n">
-        <v>490.7140262140615</v>
+        <v>426.0120576453082</v>
       </c>
       <c r="D42" t="n">
-        <v>360.6250588355418</v>
+        <v>295.9230902667885</v>
       </c>
       <c r="E42" t="n">
-        <v>356.7711910075174</v>
+        <v>159.4765993776762</v>
       </c>
       <c r="F42" t="n">
-        <v>232.3393848906492</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="G42" t="n">
-        <v>113.3175433143959</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="H42" t="n">
         <v>35.04479326080801</v>
@@ -7493,49 +7493,49 @@
         <v>244.2742646421115</v>
       </c>
       <c r="K42" t="n">
-        <v>677.9535812446106</v>
+        <v>319.8482695298405</v>
       </c>
       <c r="L42" t="n">
-        <v>809.6818089784856</v>
+        <v>451.5764972637155</v>
       </c>
       <c r="M42" t="n">
-        <v>975.9844018367869</v>
+        <v>885.2558138662146</v>
       </c>
       <c r="N42" t="n">
-        <v>1156.054148674474</v>
+        <v>1318.935130468714</v>
       </c>
       <c r="O42" t="n">
-        <v>1306.339920671258</v>
+        <v>1564.684737894076</v>
       </c>
       <c r="P42" t="n">
-        <v>1414.391009068248</v>
+        <v>1672.735826291067</v>
       </c>
       <c r="Q42" t="n">
-        <v>1752.239663040401</v>
+        <v>1712.517639739759</v>
       </c>
       <c r="R42" t="n">
         <v>1752.239663040401</v>
       </c>
       <c r="S42" t="n">
-        <v>1636.588941423698</v>
+        <v>1752.239663040401</v>
       </c>
       <c r="T42" t="n">
-        <v>1463.78890272515</v>
+        <v>1752.239663040401</v>
       </c>
       <c r="U42" t="n">
-        <v>1463.78890272515</v>
+        <v>1549.741164596304</v>
       </c>
       <c r="V42" t="n">
-        <v>1241.248901096217</v>
+        <v>1327.201162967371</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.131655229504</v>
+        <v>1097.083917100658</v>
       </c>
       <c r="X42" t="n">
-        <v>821.8245775795156</v>
+        <v>907.77683945067</v>
       </c>
       <c r="Y42" t="n">
-        <v>642.5103606550229</v>
+        <v>728.4626225261773</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>841.1516206151505</v>
+        <v>683.8256858281234</v>
       </c>
       <c r="C43" t="n">
-        <v>670.9465026811397</v>
+        <v>513.6205678941126</v>
       </c>
       <c r="D43" t="n">
-        <v>515.3133895836544</v>
+        <v>357.9874547966273</v>
       </c>
       <c r="E43" t="n">
-        <v>359.7545774428569</v>
+        <v>202.4286426558298</v>
       </c>
       <c r="F43" t="n">
         <v>202.4286426558298</v>
@@ -7569,7 +7569,7 @@
         <v>35.04479326080801</v>
       </c>
       <c r="J43" t="n">
-        <v>65.57019237956042</v>
+        <v>65.57019237956047</v>
       </c>
       <c r="K43" t="n">
         <v>246.495246493605</v>
@@ -7593,28 +7593,28 @@
         <v>1752.239663040401</v>
       </c>
       <c r="R43" t="n">
-        <v>1667.466232621746</v>
+        <v>1752.239663040401</v>
       </c>
       <c r="S43" t="n">
-        <v>1479.815440050715</v>
+        <v>1752.239663040401</v>
       </c>
       <c r="T43" t="n">
-        <v>1479.815440050715</v>
+        <v>1520.238757732274</v>
       </c>
       <c r="U43" t="n">
-        <v>1292.338984485627</v>
+        <v>1234.847431674477</v>
       </c>
       <c r="V43" t="n">
-        <v>1026.359639306452</v>
+        <v>1152.364106588247</v>
       </c>
       <c r="W43" t="n">
-        <v>1026.359639306452</v>
+        <v>869.0337045194246</v>
       </c>
       <c r="X43" t="n">
-        <v>1026.359639306452</v>
+        <v>869.0337045194246</v>
       </c>
       <c r="Y43" t="n">
-        <v>1026.359639306452</v>
+        <v>869.0337045194246</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>194.802568150949</v>
+        <v>1355.748953961002</v>
       </c>
       <c r="C44" t="n">
-        <v>194.802568150949</v>
+        <v>962.5734524639322</v>
       </c>
       <c r="D44" t="n">
-        <v>194.802568150949</v>
+        <v>962.5734524639322</v>
       </c>
       <c r="E44" t="n">
-        <v>194.802568150949</v>
+        <v>559.9899275804767</v>
       </c>
       <c r="F44" t="n">
-        <v>194.802568150949</v>
+        <v>143.0954891104544</v>
       </c>
       <c r="G44" t="n">
-        <v>194.802568150949</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="H44" t="n">
         <v>35.04479326080801</v>
@@ -7648,28 +7648,28 @@
         <v>35.04479326080801</v>
       </c>
       <c r="J44" t="n">
-        <v>79.91783613310525</v>
+        <v>341.070648604856</v>
       </c>
       <c r="K44" t="n">
-        <v>513.5971527356044</v>
+        <v>582.103168500523</v>
       </c>
       <c r="L44" t="n">
-        <v>661.9313167343587</v>
+        <v>1015.782485103022</v>
       </c>
       <c r="M44" t="n">
-        <v>877.177023424176</v>
+        <v>1201.417957823871</v>
       </c>
       <c r="N44" t="n">
-        <v>1310.856340026675</v>
+        <v>1393.056182015496</v>
       </c>
       <c r="O44" t="n">
-        <v>1483.146961099733</v>
+        <v>1565.346803088554</v>
       </c>
       <c r="P44" t="n">
-        <v>1607.767369542872</v>
+        <v>1689.967211531692</v>
       </c>
       <c r="Q44" t="n">
-        <v>1670.03982105158</v>
+        <v>1752.239663040401</v>
       </c>
       <c r="R44" t="n">
         <v>1752.239663040401</v>
@@ -7687,13 +7687,13 @@
         <v>1752.239663040401</v>
       </c>
       <c r="W44" t="n">
-        <v>1381.240628008688</v>
+        <v>1752.239663040401</v>
       </c>
       <c r="X44" t="n">
-        <v>991.7880229417448</v>
+        <v>1752.239663040401</v>
       </c>
       <c r="Y44" t="n">
-        <v>595.2973138623458</v>
+        <v>1355.748953961002</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>649.3404653850712</v>
+        <v>322.1455145898281</v>
       </c>
       <c r="C45" t="n">
-        <v>498.6862349451634</v>
+        <v>171.4912841499203</v>
       </c>
       <c r="D45" t="n">
-        <v>498.6862349451634</v>
+        <v>171.4912841499203</v>
       </c>
       <c r="E45" t="n">
-        <v>362.2397440560511</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="F45" t="n">
-        <v>237.8079379391829</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="G45" t="n">
-        <v>118.7860963629297</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="H45" t="n">
-        <v>40.51334630934176</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="I45" t="n">
         <v>35.04479326080801</v>
@@ -7730,49 +7730,49 @@
         <v>49.53926966238418</v>
       </c>
       <c r="K45" t="n">
-        <v>455.0341282590605</v>
+        <v>125.1132745501131</v>
       </c>
       <c r="L45" t="n">
-        <v>586.7623559929355</v>
+        <v>558.7925911526122</v>
       </c>
       <c r="M45" t="n">
-        <v>1020.441672595435</v>
+        <v>992.4719077551113</v>
       </c>
       <c r="N45" t="n">
-        <v>1454.120989197934</v>
+        <v>1172.541654592798</v>
       </c>
       <c r="O45" t="n">
-        <v>1604.406761194718</v>
+        <v>1564.684737894076</v>
       </c>
       <c r="P45" t="n">
-        <v>1712.457849591708</v>
+        <v>1672.735826291067</v>
       </c>
       <c r="Q45" t="n">
-        <v>1752.239663040401</v>
+        <v>1712.517639739759</v>
       </c>
       <c r="R45" t="n">
         <v>1752.239663040401</v>
       </c>
       <c r="S45" t="n">
-        <v>1636.588941423698</v>
+        <v>1678.015285202936</v>
       </c>
       <c r="T45" t="n">
-        <v>1463.78890272515</v>
+        <v>1505.215246504388</v>
       </c>
       <c r="U45" t="n">
-        <v>1253.794047321679</v>
+        <v>1295.220391100916</v>
       </c>
       <c r="V45" t="n">
-        <v>1031.254045692746</v>
+        <v>1072.680389471984</v>
       </c>
       <c r="W45" t="n">
-        <v>801.1367998260325</v>
+        <v>842.5631436052704</v>
       </c>
       <c r="X45" t="n">
-        <v>801.1367998260325</v>
+        <v>653.2560659552821</v>
       </c>
       <c r="Y45" t="n">
-        <v>801.1367998260325</v>
+        <v>473.9418490307894</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1095.818265101006</v>
+        <v>841.1516206151505</v>
       </c>
       <c r="C46" t="n">
-        <v>925.6131471669951</v>
+        <v>670.9465026811397</v>
       </c>
       <c r="D46" t="n">
-        <v>769.9800340695099</v>
+        <v>515.3133895836544</v>
       </c>
       <c r="E46" t="n">
-        <v>614.4212219287124</v>
+        <v>359.7545774428569</v>
       </c>
       <c r="F46" t="n">
-        <v>457.0952871416854</v>
+        <v>202.4286426558298</v>
       </c>
       <c r="G46" t="n">
-        <v>289.7114377466636</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="H46" t="n">
-        <v>141.969795857348</v>
+        <v>35.04479326080801</v>
       </c>
       <c r="I46" t="n">
         <v>35.04479326080801</v>
       </c>
       <c r="J46" t="n">
-        <v>65.57019237956047</v>
+        <v>65.57019237956042</v>
       </c>
       <c r="K46" t="n">
         <v>246.495246493605</v>
@@ -7839,19 +7839,19 @@
         <v>1667.466232621746</v>
       </c>
       <c r="U46" t="n">
-        <v>1382.074906563948</v>
+        <v>1667.466232621746</v>
       </c>
       <c r="V46" t="n">
-        <v>1382.074906563948</v>
+        <v>1401.48688744257</v>
       </c>
       <c r="W46" t="n">
-        <v>1382.074906563948</v>
+        <v>1249.471700489808</v>
       </c>
       <c r="X46" t="n">
-        <v>1281.026283792307</v>
+        <v>1249.471700489808</v>
       </c>
       <c r="Y46" t="n">
-        <v>1281.026283792307</v>
+        <v>1026.359639306452</v>
       </c>
     </row>
   </sheetData>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>288.2274268724696</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8707,10 +8707,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>59.19149688662736</v>
+        <v>16.20753832964579</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>131.5097342839053</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>118.2683518696627</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>250.5493372541924</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>293.7594956889697</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>256.1712825907192</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>38.78504645811208</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>328.9174022277863</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9166,28 +9166,28 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>466.1234507861676</v>
       </c>
       <c r="L17" t="n">
-        <v>417.5365134026637</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>379.8584237843866</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>34.84755111730198</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>441.4898018426796</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.03572313604771</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5176150018526</v>
+        <v>19.4874715788017</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>122.2519416192975</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>434.3101863974913</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>399.386585261707</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>415.5651921925328</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>394.4022958732099</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
-        <v>30.890549046427</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>86.72947305096727</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>379.8584237843866</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>373.7950384603702</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>38.35653231732482</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>441.4898018426796</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9479,31 +9479,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>117.7793185587263</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>385.4803691209133</v>
       </c>
       <c r="O21" t="n">
-        <v>415.5651921925328</v>
+        <v>331.1050324610968</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>458.2264887579805</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>71.01380490566048</v>
+        <v>30.890549046427</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>379.8584237843866</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>373.7950384603702</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>86.72947305096704</v>
       </c>
       <c r="P23" t="n">
-        <v>121.3866757403759</v>
+        <v>441.4898018426796</v>
       </c>
       <c r="Q23" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R23" t="n">
-        <v>19.4874715788017</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,25 +9716,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>399.3865852617071</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>188.7183032896308</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>415.5651921925328</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>394.402295873209</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9877,28 +9877,28 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>466.1234507861676</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>379.8584237843866</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>373.7950384603702</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>34.84755111730198</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>441.4898018426796</v>
       </c>
       <c r="Q26" t="n">
-        <v>105.7771980783412</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>102.5176150018526</v>
+        <v>19.4874715788017</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>348.7415768548521</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>399.3865852617071</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>385.4803691209133</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>415.5651921925327</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>458.2264887579805</v>
       </c>
       <c r="Q27" t="n">
-        <v>171.0817588958751</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>30.890549046427</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>169.7596164740182</v>
       </c>
       <c r="L29" t="n">
-        <v>417.5365134026637</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>379.8584237843866</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>373.7950384603702</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>35.06154776716389</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>441.4898018426796</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>19.4874715788017</v>
@@ -10193,28 +10193,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>130.958503036642</v>
+        <v>434.3101863974912</v>
       </c>
       <c r="M30" t="n">
-        <v>399.386585261707</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>385.4803691209133</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>415.5651921925328</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>458.2264887579805</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>66.41146057593387</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>30.890549046427</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>466.1234507861676</v>
       </c>
       <c r="L32" t="n">
-        <v>86.72947305096727</v>
+        <v>145.1259675305301</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>441.4898018426796</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
-        <v>102.5176150018526</v>
+        <v>19.4874715788017</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>173.0010781055006</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>434.3101863974912</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>385.4803691209133</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>53.37360533540999</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>458.2264887579805</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>71.01380490566048</v>
+        <v>30.890549046427</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,10 +10591,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>169.7596164740183</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>86.72947305096721</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
-        <v>19.4874715788017</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>348.7415768548521</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>399.3865852617071</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>228.8415591488641</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>415.5651921925328</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>458.2264887579805</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
-        <v>30.890549046427</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>217.91134640323</v>
+        <v>466.1234507861676</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>393.3380719134677</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>408.9166871989651</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -10901,31 +10901,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>434.3101863974912</v>
       </c>
       <c r="M39" t="n">
-        <v>327.9359342028768</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>385.4803691209133</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>415.5651921925327</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>96.0349019008578</v>
       </c>
       <c r="R39" t="n">
-        <v>30.890549046427</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>288.2274268724696</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>250.5493372541925</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>155.463022723921</v>
       </c>
       <c r="O41" t="n">
-        <v>264.0289853832736</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>166.4200817988744</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>19.4874715788017</v>
@@ -11141,28 +11141,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>361.7225370856264</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>270.0774987315129</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>256.1712825907192</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>96.42811659452377</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>301.0776166903632</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>30.890549046427</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>336.8143642559734</v>
+        <v>142.2216403096784</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>288.2274268724695</v>
       </c>
       <c r="M44" t="n">
-        <v>29.90932724138258</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>244.4859519301761</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5176150018526</v>
+        <v>19.4874715788017</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,19 +11378,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>333.2533875847953</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>305.0010998672971</v>
       </c>
       <c r="M45" t="n">
         <v>270.0774987315129</v>
       </c>
       <c r="N45" t="n">
-        <v>256.1712825907192</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>244.3003144489837</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.890549046427</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -23269,16 +23269,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>407.1105560029575</v>
+        <v>98.20527433404328</v>
       </c>
       <c r="H11" t="n">
         <v>301.1731624060981</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.91089548498542</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>42.06978028320853</v>
+        <v>121.0833861084235</v>
       </c>
       <c r="T11" t="n">
-        <v>212.8582926878957</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.0415565134338</v>
@@ -23320,10 +23320,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23342,22 +23342,22 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>41.01208034144557</v>
       </c>
       <c r="F12" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>117.8316231604907</v>
       </c>
       <c r="H12" t="n">
         <v>77.49002255305206</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>13.51341119095448</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23396,10 +23396,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>73.32911898957929</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.2642254704225</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.8557525705746</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>83.92569611446805</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.7742846453212</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>229.6808962550451</v>
+        <v>77.62743764543796</v>
       </c>
       <c r="U13" t="n">
-        <v>36.91710791313</v>
+        <v>282.5374127972193</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -23481,7 +23481,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>57.56263196634342</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>121.0833861084235</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>47.44467851937512</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.0415565134338</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8316231604907</v>
+        <v>52.3332240773191</v>
       </c>
       <c r="H15" t="n">
         <v>77.49002255305206</v>
       </c>
       <c r="I15" t="n">
-        <v>6.640941276536827</v>
+        <v>13.51341119095448</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.7100109010716</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.2642254704225</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>105.8557525705746</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>78.33247807214491</v>
       </c>
       <c r="S16" t="n">
-        <v>185.7742846453212</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>229.6808962550451</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5374127972193</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>150.0085234482212</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>371.1447149665223</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>301.1731624060981</v>
       </c>
       <c r="I17" t="n">
-        <v>62.91089548498542</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>121.0833861084235</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.8582926878957</v>
       </c>
       <c r="U17" t="n">
         <v>253.0415565134338</v>
@@ -23794,7 +23794,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>362.2293056436822</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
         <v>165.7100109010716</v>
@@ -23910,7 +23910,7 @@
         <v>146.2642254704225</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>105.8557525705746</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>83.92569611446805</v>
       </c>
       <c r="S19" t="n">
-        <v>185.7742846453212</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>229.6808962550451</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>16.29854801309392</v>
+        <v>16.14207688433919</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>62.91089548498542</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.8582926878957</v>
       </c>
       <c r="U20" t="n">
         <v>253.0415565134338</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>21.9909485724209</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>136.8095393712088</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.7722295697057</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>83.92569611446805</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>116.8356399878767</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.6808962550451</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -24195,7 +24195,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24211,16 +24211,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>407.1105560029575</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>253.0415565134338</v>
       </c>
       <c r="V23" t="n">
-        <v>39.897206880277</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>74.24531680392272</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>55.72061886100018</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>105.8557525705746</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>83.92569611446805</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>185.7742846453212</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.6808962550451</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>40.30412510342916</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>194.8074623597132</v>
+        <v>122.0461608290631</v>
       </c>
       <c r="H26" t="n">
-        <v>301.1731624060981</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>62.91089548498542</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>121.0833861084235</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>212.8582926878957</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0415565134338</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -24618,10 +24618,10 @@
         <v>165.7100109010716</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.2642254704225</v>
       </c>
       <c r="I28" t="n">
-        <v>60.75247535335266</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>83.92569611446805</v>
       </c>
       <c r="S28" t="n">
-        <v>185.7742846453212</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>216.3848959976923</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>407.1105560029575</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>39.50484344047732</v>
+        <v>301.1731624060981</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>62.91089548498542</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>105.8646287191239</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>84.90061344332072</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
@@ -24849,13 +24849,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>146.2642254704225</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>83.92569611446805</v>
       </c>
       <c r="S31" t="n">
-        <v>185.7742846453212</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>229.6808962550451</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5374127972193</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>54.79703984302833</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>357.6377427220564</v>
+        <v>407.1105560029575</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.1731624060981</v>
       </c>
       <c r="I32" t="n">
         <v>62.91089548498542</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>63.20252513080104</v>
       </c>
       <c r="U32" t="n">
         <v>253.0415565134338</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25125,7 +25125,7 @@
         <v>83.92569611446805</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>114.526268221889</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>219.8454711351122</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,13 +25159,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>202.0884205635643</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>121.0833861084235</v>
+        <v>0.02114919876269994</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25317,19 +25317,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>165.7100109010716</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>62.64854699863182</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>105.8557525705746</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>83.92569611446805</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>185.7742846453212</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>229.6808962550451</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>45.36452114600172</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>183.8683778666073</v>
+        <v>407.1105560029575</v>
       </c>
       <c r="H38" t="n">
-        <v>301.1731624060981</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>62.91089548498542</v>
@@ -25444,19 +25444,19 @@
         <v>121.0833861084235</v>
       </c>
       <c r="T38" t="n">
-        <v>212.8582926878957</v>
+        <v>38.3469699159385</v>
       </c>
       <c r="U38" t="n">
-        <v>253.0415565134338</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>392.5258019886049</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.7100109010716</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>146.2642254704225</v>
+        <v>5.516109407186548</v>
       </c>
       <c r="I40" t="n">
         <v>105.8557525705746</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>83.92569611446805</v>
       </c>
       <c r="S40" t="n">
-        <v>185.7742846453212</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>229.6808962550451</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>14.73630243083778</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>407.1105560029575</v>
       </c>
       <c r="H41" t="n">
-        <v>164.9676670655619</v>
+        <v>301.1731624060981</v>
       </c>
       <c r="I41" t="n">
         <v>62.91089548498542</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>121.0833861084235</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>212.8582926878957</v>
       </c>
       <c r="U41" t="n">
-        <v>253.0415565134338</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>180.1153902305551</v>
       </c>
     </row>
     <row r="42">
@@ -25709,22 +25709,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>131.2666968304769</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>117.8316231604907</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>77.49002255305206</v>
       </c>
       <c r="I42" t="n">
         <v>13.51341119095448</v>
@@ -25757,13 +25757,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>114.4942144005354</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>171.0720383115627</v>
       </c>
       <c r="U42" t="n">
-        <v>207.8949068494365</v>
+        <v>7.421393389781258</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>83.92569611446805</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>185.7742846453212</v>
       </c>
       <c r="T43" t="n">
-        <v>229.6808962550451</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>96.93572178778297</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>181.6610598920165</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>407.1105560029575</v>
+        <v>300.1403671118076</v>
       </c>
       <c r="H44" t="n">
-        <v>143.0129652648585</v>
+        <v>301.1731624060981</v>
       </c>
       <c r="I44" t="n">
         <v>62.91089548498542</v>
@@ -25927,10 +25927,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25955,16 +25955,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>117.8316231604907</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>77.49002255305206</v>
       </c>
       <c r="I45" t="n">
-        <v>8.099543672906073</v>
+        <v>13.51341119095448</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>41.01208034144548</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>146.2642254704225</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>105.8557525705746</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>229.6808962550451</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5374127972193</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>130.0020629649001</v>
       </c>
       <c r="X46" t="n">
-        <v>131.7013824509219</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>491649.8161922413</v>
+        <v>491649.8161922414</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>491649.8161922414</v>
+        <v>491649.8161922413</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>576203.4932497699</v>
+        <v>576203.49324977</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>576203.4932497698</v>
+        <v>576203.4932497699</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>576203.4932497699</v>
+        <v>576203.4932497698</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>576203.4932497699</v>
+        <v>576203.4932497698</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>576203.4932497699</v>
+        <v>576203.4932497701</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>576203.49324977</v>
+        <v>576203.4932497698</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>576203.4932497699</v>
+        <v>576203.49324977</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491649.8161922413</v>
+        <v>491649.8161922412</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>485727.8975497361</v>
+        <v>485727.897549736</v>
       </c>
       <c r="C2" t="n">
-        <v>485727.8975497361</v>
+        <v>485727.897549736</v>
       </c>
       <c r="D2" t="n">
         <v>485727.8975497361</v>
       </c>
       <c r="E2" t="n">
-        <v>283601.1781911331</v>
+        <v>283601.178191133</v>
       </c>
       <c r="F2" t="n">
-        <v>283601.178191133</v>
+        <v>283601.1781911328</v>
       </c>
       <c r="G2" t="n">
-        <v>324926.2777837082</v>
+        <v>324926.277783708</v>
       </c>
       <c r="H2" t="n">
-        <v>324926.2777837082</v>
+        <v>324926.2777837081</v>
       </c>
       <c r="I2" t="n">
         <v>324926.2777837081</v>
       </c>
       <c r="J2" t="n">
-        <v>324926.2777837081</v>
+        <v>324926.2777837079</v>
       </c>
       <c r="K2" t="n">
         <v>324926.2777837081</v>
       </c>
       <c r="L2" t="n">
-        <v>324926.2777837079</v>
+        <v>324926.2777837081</v>
       </c>
       <c r="M2" t="n">
-        <v>324926.2777837081</v>
+        <v>324926.277783708</v>
       </c>
       <c r="N2" t="n">
-        <v>324926.2777837081</v>
+        <v>324926.2777837082</v>
       </c>
       <c r="O2" t="n">
+        <v>283601.1781911331</v>
+      </c>
+      <c r="P2" t="n">
         <v>283601.178191133</v>
-      </c>
-      <c r="P2" t="n">
-        <v>283601.1781911331</v>
       </c>
     </row>
     <row r="3">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370028.2700183725</v>
+        <v>370028.2700183726</v>
       </c>
       <c r="C4" t="n">
-        <v>370028.2700183725</v>
+        <v>370028.2700183726</v>
       </c>
       <c r="D4" t="n">
-        <v>370028.2700183725</v>
+        <v>370028.2700183726</v>
       </c>
       <c r="E4" t="n">
         <v>40368.54487418936</v>
@@ -26438,10 +26438,10 @@
         <v>59201.87258022301</v>
       </c>
       <c r="I4" t="n">
-        <v>59201.87258022301</v>
+        <v>59201.872580223</v>
       </c>
       <c r="J4" t="n">
-        <v>59201.87258022301</v>
+        <v>59201.87258022303</v>
       </c>
       <c r="K4" t="n">
         <v>59201.87258022302</v>
@@ -26450,10 +26450,10 @@
         <v>59201.87258022302</v>
       </c>
       <c r="M4" t="n">
-        <v>59201.87258022302</v>
+        <v>59201.87258022301</v>
       </c>
       <c r="N4" t="n">
-        <v>59201.87258022301</v>
+        <v>59201.872580223</v>
       </c>
       <c r="O4" t="n">
         <v>40368.54487418936</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82072.02753136365</v>
+        <v>82067.69796357705</v>
       </c>
       <c r="C6" t="n">
-        <v>82072.02753136359</v>
+        <v>82067.69796357705</v>
       </c>
       <c r="D6" t="n">
-        <v>82072.02753136359</v>
+        <v>82067.69796357711</v>
       </c>
       <c r="E6" t="n">
-        <v>-308430.8204389971</v>
+        <v>-309183.7674858894</v>
       </c>
       <c r="F6" t="n">
-        <v>206183.8088756136</v>
+        <v>205430.861828721</v>
       </c>
       <c r="G6" t="n">
-        <v>185371.9073194911</v>
+        <v>184772.0161970154</v>
       </c>
       <c r="H6" t="n">
-        <v>220813.5883011193</v>
+        <v>220213.6971786439</v>
       </c>
       <c r="I6" t="n">
-        <v>220813.5883011192</v>
+        <v>220213.6971786439</v>
       </c>
       <c r="J6" t="n">
-        <v>220813.5883011192</v>
+        <v>220213.6971786437</v>
       </c>
       <c r="K6" t="n">
-        <v>220813.5883011192</v>
+        <v>220213.6971786439</v>
       </c>
       <c r="L6" t="n">
-        <v>220813.588301119</v>
+        <v>220213.6971786439</v>
       </c>
       <c r="M6" t="n">
-        <v>111647.3050540393</v>
+        <v>111047.4139315638</v>
       </c>
       <c r="N6" t="n">
-        <v>220813.5883011192</v>
+        <v>220213.6971786439</v>
       </c>
       <c r="O6" t="n">
-        <v>206183.8088756136</v>
+        <v>205430.8618287214</v>
       </c>
       <c r="P6" t="n">
-        <v>206183.8088756137</v>
+        <v>205430.8618287212</v>
       </c>
     </row>
   </sheetData>
@@ -35415,7 +35415,7 @@
         <v>101.2455515041267</v>
       </c>
       <c r="L11" t="n">
-        <v>438.0599157601001</v>
+        <v>149.8324888876306</v>
       </c>
       <c r="M11" t="n">
         <v>187.5105785059076</v>
@@ -35427,10 +35427,10 @@
         <v>174.0309303768266</v>
       </c>
       <c r="P11" t="n">
-        <v>185.070697334242</v>
+        <v>142.0867387772605</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.90146617041225</v>
+        <v>394.1128515998636</v>
       </c>
       <c r="R11" t="n">
         <v>83.0301434230509</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>176.8360402155187</v>
+        <v>309.1170256000485</v>
       </c>
       <c r="K14" t="n">
-        <v>101.2455515041267</v>
+        <v>219.5139033737894</v>
       </c>
       <c r="L14" t="n">
         <v>149.8324888876306</v>
       </c>
       <c r="M14" t="n">
-        <v>438.0599157601001</v>
+        <v>187.5105785059076</v>
       </c>
       <c r="N14" t="n">
         <v>193.5739638299241</v>
@@ -35728,7 +35728,7 @@
         <v>211.3429003851551</v>
       </c>
       <c r="K15" t="n">
-        <v>76.3373786744737</v>
+        <v>370.0968743634434</v>
       </c>
       <c r="L15" t="n">
         <v>133.058815892803</v>
@@ -35737,16 +35737,16 @@
         <v>167.9824170285872</v>
       </c>
       <c r="N15" t="n">
+        <v>181.8886331693809</v>
+      </c>
+      <c r="O15" t="n">
+        <v>151.8038100977615</v>
+      </c>
+      <c r="P15" t="n">
         <v>438.0599157601001</v>
       </c>
-      <c r="O15" t="n">
-        <v>190.5888565558736</v>
-      </c>
-      <c r="P15" t="n">
-        <v>109.1425135323138</v>
-      </c>
       <c r="Q15" t="n">
-        <v>367.9042188160988</v>
+        <v>40.18364994817425</v>
       </c>
       <c r="R15" t="n">
         <v>40.12325585923348</v>
@@ -35886,28 +35886,28 @@
         <v>309.1170256000485</v>
       </c>
       <c r="K17" t="n">
-        <v>101.2455515041267</v>
+        <v>567.3690022902942</v>
       </c>
       <c r="L17" t="n">
-        <v>567.3690022902942</v>
+        <v>149.8324888876306</v>
       </c>
       <c r="M17" t="n">
-        <v>567.3690022902942</v>
+        <v>187.5105785059076</v>
       </c>
       <c r="N17" t="n">
         <v>193.5739638299241</v>
       </c>
       <c r="O17" t="n">
-        <v>174.0309303768266</v>
+        <v>208.8784814941286</v>
       </c>
       <c r="P17" t="n">
-        <v>125.8792004476147</v>
+        <v>567.3690022902942</v>
       </c>
       <c r="Q17" t="n">
-        <v>124.93718930646</v>
+        <v>62.90146617041225</v>
       </c>
       <c r="R17" t="n">
-        <v>83.0301434230509</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>14.64088525411734</v>
+        <v>211.3429003851551</v>
       </c>
       <c r="K18" t="n">
-        <v>198.5893202937712</v>
+        <v>488.9031484140963</v>
       </c>
       <c r="L18" t="n">
-        <v>567.3690022902942</v>
+        <v>133.058815892803</v>
       </c>
       <c r="M18" t="n">
-        <v>567.3690022902942</v>
+        <v>167.9824170285872</v>
       </c>
       <c r="N18" t="n">
         <v>181.8886331693809</v>
       </c>
       <c r="O18" t="n">
-        <v>567.3690022902942</v>
+        <v>151.8038100977615</v>
       </c>
       <c r="P18" t="n">
-        <v>109.1425135323138</v>
+        <v>503.5448094055237</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.18364994817425</v>
+        <v>367.9042188160988</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>40.12325585923348</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.32630593161338</v>
+        <v>309.1170256000485</v>
       </c>
       <c r="K20" t="n">
-        <v>101.2455515041267</v>
+        <v>187.975024555094</v>
       </c>
       <c r="L20" t="n">
         <v>149.8324888876306</v>
       </c>
       <c r="M20" t="n">
+        <v>187.5105785059076</v>
+      </c>
+      <c r="N20" t="n">
+        <v>193.5739638299241</v>
+      </c>
+      <c r="O20" t="n">
+        <v>174.0309303768266</v>
+      </c>
+      <c r="P20" t="n">
         <v>567.3690022902942</v>
-      </c>
-      <c r="N20" t="n">
-        <v>567.3690022902942</v>
-      </c>
-      <c r="O20" t="n">
-        <v>212.3874626941514</v>
-      </c>
-      <c r="P20" t="n">
-        <v>125.8792004476147</v>
       </c>
       <c r="Q20" t="n">
         <v>394.1128515998636</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.64088525411734</v>
+        <v>211.3429003851551</v>
       </c>
       <c r="K21" t="n">
-        <v>488.9031484140963</v>
+        <v>76.3373786744737</v>
       </c>
       <c r="L21" t="n">
         <v>133.058815892803</v>
       </c>
       <c r="M21" t="n">
-        <v>285.7617355873135</v>
+        <v>167.9824170285872</v>
       </c>
       <c r="N21" t="n">
         <v>567.3690022902942</v>
       </c>
       <c r="O21" t="n">
+        <v>482.9088425588583</v>
+      </c>
+      <c r="P21" t="n">
         <v>567.3690022902942</v>
-      </c>
-      <c r="P21" t="n">
-        <v>109.1425135323138</v>
       </c>
       <c r="Q21" t="n">
         <v>40.18364994817425</v>
       </c>
       <c r="R21" t="n">
-        <v>40.12325585923348</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.32630593161338</v>
+        <v>309.1170256000485</v>
       </c>
       <c r="K23" t="n">
         <v>101.2455515041267</v>
@@ -36366,22 +36366,22 @@
         <v>149.8324888876306</v>
       </c>
       <c r="M23" t="n">
+        <v>187.5105785059076</v>
+      </c>
+      <c r="N23" t="n">
+        <v>193.5739638299241</v>
+      </c>
+      <c r="O23" t="n">
+        <v>260.7604034277936</v>
+      </c>
+      <c r="P23" t="n">
         <v>567.3690022902942</v>
-      </c>
-      <c r="N23" t="n">
-        <v>567.3690022902942</v>
-      </c>
-      <c r="O23" t="n">
-        <v>174.0309303768266</v>
-      </c>
-      <c r="P23" t="n">
-        <v>247.2658761879906</v>
       </c>
       <c r="Q23" t="n">
         <v>394.1128515998636</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>83.0301434230509</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>14.64088525411734</v>
+        <v>211.3429003851551</v>
       </c>
       <c r="K24" t="n">
-        <v>76.3373786744737</v>
+        <v>488.9031484140963</v>
       </c>
       <c r="L24" t="n">
         <v>133.058815892803</v>
       </c>
       <c r="M24" t="n">
-        <v>567.3690022902942</v>
+        <v>167.9824170285872</v>
       </c>
       <c r="N24" t="n">
-        <v>370.6069364590116</v>
+        <v>181.8886331693809</v>
       </c>
       <c r="O24" t="n">
-        <v>567.3690022902942</v>
+        <v>151.8038100977615</v>
       </c>
       <c r="P24" t="n">
-        <v>109.1425135323138</v>
+        <v>503.5448094055228</v>
       </c>
       <c r="Q24" t="n">
         <v>367.9042188160988</v>
@@ -36597,28 +36597,28 @@
         <v>309.1170256000485</v>
       </c>
       <c r="K26" t="n">
-        <v>101.2455515041267</v>
+        <v>567.3690022902942</v>
       </c>
       <c r="L26" t="n">
         <v>149.8324888876306</v>
       </c>
       <c r="M26" t="n">
+        <v>187.5105785059076</v>
+      </c>
+      <c r="N26" t="n">
+        <v>193.5739638299241</v>
+      </c>
+      <c r="O26" t="n">
+        <v>208.8784814941286</v>
+      </c>
+      <c r="P26" t="n">
         <v>567.3690022902942</v>
       </c>
-      <c r="N26" t="n">
-        <v>567.3690022902942</v>
-      </c>
-      <c r="O26" t="n">
-        <v>174.0309303768266</v>
-      </c>
-      <c r="P26" t="n">
-        <v>125.8792004476147</v>
-      </c>
       <c r="Q26" t="n">
-        <v>168.6786642487534</v>
+        <v>62.90146617041225</v>
       </c>
       <c r="R26" t="n">
-        <v>83.0301434230509</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14.64088525411734</v>
+        <v>211.3429003851551</v>
       </c>
       <c r="K27" t="n">
-        <v>76.3373786744737</v>
+        <v>425.0789555293258</v>
       </c>
       <c r="L27" t="n">
         <v>133.058815892803</v>
       </c>
       <c r="M27" t="n">
+        <v>167.9824170285872</v>
+      </c>
+      <c r="N27" t="n">
+        <v>181.8886331693809</v>
+      </c>
+      <c r="O27" t="n">
+        <v>151.8038100977615</v>
+      </c>
+      <c r="P27" t="n">
         <v>567.3690022902942</v>
       </c>
-      <c r="N27" t="n">
-        <v>567.3690022902942</v>
-      </c>
-      <c r="O27" t="n">
-        <v>567.3690022902942</v>
-      </c>
-      <c r="P27" t="n">
-        <v>109.1425135323138</v>
-      </c>
       <c r="Q27" t="n">
-        <v>211.2654088440493</v>
+        <v>367.9042188160988</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>40.12325585923348</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.32630593161338</v>
+        <v>309.1170256000485</v>
       </c>
       <c r="K29" t="n">
-        <v>101.2455515041267</v>
+        <v>271.0051679781449</v>
       </c>
       <c r="L29" t="n">
+        <v>149.8324888876306</v>
+      </c>
+      <c r="M29" t="n">
+        <v>187.5105785059076</v>
+      </c>
+      <c r="N29" t="n">
+        <v>193.5739638299241</v>
+      </c>
+      <c r="O29" t="n">
+        <v>174.0309303768266</v>
+      </c>
+      <c r="P29" t="n">
         <v>567.3690022902942</v>
       </c>
-      <c r="M29" t="n">
-        <v>567.3690022902942</v>
-      </c>
-      <c r="N29" t="n">
-        <v>567.3690022902942</v>
-      </c>
-      <c r="O29" t="n">
-        <v>209.0924781439905</v>
-      </c>
-      <c r="P29" t="n">
-        <v>125.8792004476147</v>
-      </c>
       <c r="Q29" t="n">
-        <v>62.90146617041225</v>
+        <v>394.1128515998636</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>14.64088525411734</v>
       </c>
       <c r="K30" t="n">
-        <v>76.3373786744737</v>
+        <v>488.9031484140963</v>
       </c>
       <c r="L30" t="n">
-        <v>264.017318929445</v>
+        <v>567.3690022902942</v>
       </c>
       <c r="M30" t="n">
+        <v>167.9824170285872</v>
+      </c>
+      <c r="N30" t="n">
+        <v>181.8886331693809</v>
+      </c>
+      <c r="O30" t="n">
+        <v>151.8038100977615</v>
+      </c>
+      <c r="P30" t="n">
         <v>567.3690022902942</v>
       </c>
-      <c r="N30" t="n">
-        <v>567.3690022902942</v>
-      </c>
-      <c r="O30" t="n">
-        <v>567.3690022902942</v>
-      </c>
-      <c r="P30" t="n">
-        <v>109.1425135323138</v>
-      </c>
       <c r="Q30" t="n">
-        <v>40.18364994817425</v>
+        <v>106.5951105241081</v>
       </c>
       <c r="R30" t="n">
-        <v>40.12325585923348</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>309.1170256000485</v>
       </c>
       <c r="K32" t="n">
-        <v>101.2455515041267</v>
+        <v>567.3690022902942</v>
       </c>
       <c r="L32" t="n">
-        <v>236.5619619385979</v>
+        <v>294.9584564181607</v>
       </c>
       <c r="M32" t="n">
         <v>187.5105785059076</v>
@@ -37086,13 +37086,13 @@
         <v>174.0309303768266</v>
       </c>
       <c r="P32" t="n">
-        <v>567.3690022902942</v>
+        <v>125.8792004476147</v>
       </c>
       <c r="Q32" t="n">
         <v>394.1128515998636</v>
       </c>
       <c r="R32" t="n">
-        <v>83.0301434230509</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>14.64088525411734</v>
+        <v>187.6419633596179</v>
       </c>
       <c r="K33" t="n">
-        <v>76.3373786744737</v>
+        <v>488.9031484140963</v>
       </c>
       <c r="L33" t="n">
-        <v>567.3690022902942</v>
+        <v>133.058815892803</v>
       </c>
       <c r="M33" t="n">
         <v>167.9824170285872</v>
       </c>
       <c r="N33" t="n">
-        <v>567.3690022902942</v>
+        <v>181.8886331693809</v>
       </c>
       <c r="O33" t="n">
-        <v>205.1774154331715</v>
+        <v>151.8038100977615</v>
       </c>
       <c r="P33" t="n">
         <v>567.3690022902942</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.18364994817425</v>
+        <v>367.9042188160988</v>
       </c>
       <c r="R33" t="n">
-        <v>40.12325585923348</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,10 +37311,10 @@
         <v>101.2455515041267</v>
       </c>
       <c r="L35" t="n">
-        <v>319.5921053616489</v>
+        <v>149.8324888876306</v>
       </c>
       <c r="M35" t="n">
-        <v>187.5105785059076</v>
+        <v>274.2400515568748</v>
       </c>
       <c r="N35" t="n">
         <v>193.5739638299241</v>
@@ -37329,7 +37329,7 @@
         <v>394.1128515998636</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>83.0301434230509</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>14.64088525411734</v>
+        <v>211.3429003851551</v>
       </c>
       <c r="K36" t="n">
-        <v>76.3373786744737</v>
+        <v>425.0789555293258</v>
       </c>
       <c r="L36" t="n">
         <v>133.058815892803</v>
       </c>
       <c r="M36" t="n">
+        <v>167.9824170285872</v>
+      </c>
+      <c r="N36" t="n">
+        <v>181.8886331693809</v>
+      </c>
+      <c r="O36" t="n">
+        <v>151.8038100977615</v>
+      </c>
+      <c r="P36" t="n">
         <v>567.3690022902942</v>
-      </c>
-      <c r="N36" t="n">
-        <v>410.730192318245</v>
-      </c>
-      <c r="O36" t="n">
-        <v>567.3690022902942</v>
-      </c>
-      <c r="P36" t="n">
-        <v>109.1425135323138</v>
       </c>
       <c r="Q36" t="n">
         <v>367.9042188160988</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>40.12325585923348</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>309.1170256000485</v>
+        <v>45.32630593161338</v>
       </c>
       <c r="K38" t="n">
-        <v>319.1568979073567</v>
+        <v>567.3690022902942</v>
       </c>
       <c r="L38" t="n">
         <v>149.8324888876306</v>
@@ -37557,10 +37557,10 @@
         <v>193.5739638299241</v>
       </c>
       <c r="O38" t="n">
-        <v>567.3690022902942</v>
+        <v>174.0309303768266</v>
       </c>
       <c r="P38" t="n">
-        <v>125.8792004476147</v>
+        <v>534.7958876465798</v>
       </c>
       <c r="Q38" t="n">
         <v>394.1128515998636</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>211.3429003851551</v>
+        <v>14.64088525411734</v>
       </c>
       <c r="K39" t="n">
-        <v>488.9031484140963</v>
+        <v>76.3373786744737</v>
       </c>
       <c r="L39" t="n">
         <v>567.3690022902942</v>
       </c>
       <c r="M39" t="n">
-        <v>495.9183512314639</v>
+        <v>167.9824170285872</v>
       </c>
       <c r="N39" t="n">
-        <v>181.8886331693809</v>
+        <v>567.3690022902942</v>
       </c>
       <c r="O39" t="n">
-        <v>151.8038100977615</v>
+        <v>567.3690022902942</v>
       </c>
       <c r="P39" t="n">
         <v>109.1425135323138</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.18364994817425</v>
+        <v>136.2185518490321</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>40.12325585923348</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>309.1170256000485</v>
+        <v>45.32630593161338</v>
       </c>
       <c r="K41" t="n">
         <v>101.2455515041267</v>
       </c>
       <c r="L41" t="n">
-        <v>149.8324888876306</v>
+        <v>438.0599157601001</v>
       </c>
       <c r="M41" t="n">
-        <v>187.5105785059076</v>
+        <v>438.0599157601001</v>
       </c>
       <c r="N41" t="n">
-        <v>193.5739638299241</v>
+        <v>349.0369865538451</v>
       </c>
       <c r="O41" t="n">
-        <v>438.0599157601001</v>
+        <v>174.0309303768266</v>
       </c>
       <c r="P41" t="n">
         <v>125.8792004476147</v>
       </c>
       <c r="Q41" t="n">
-        <v>229.3215479692867</v>
+        <v>62.90146617041225</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>211.3429003851551</v>
       </c>
       <c r="K42" t="n">
-        <v>438.0599157601001</v>
+        <v>76.3373786744737</v>
       </c>
       <c r="L42" t="n">
         <v>133.058815892803</v>
       </c>
       <c r="M42" t="n">
-        <v>167.9824170285872</v>
+        <v>438.0599157601001</v>
       </c>
       <c r="N42" t="n">
-        <v>181.8886331693809</v>
+        <v>438.0599157601001</v>
       </c>
       <c r="O42" t="n">
-        <v>151.8038100977615</v>
+        <v>248.2319266922853</v>
       </c>
       <c r="P42" t="n">
         <v>109.1425135323138</v>
       </c>
       <c r="Q42" t="n">
-        <v>341.2612666385374</v>
+        <v>40.18364994817425</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>40.12325585923348</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.32630593161338</v>
+        <v>309.1170256000485</v>
       </c>
       <c r="K44" t="n">
+        <v>243.4671918138051</v>
+      </c>
+      <c r="L44" t="n">
         <v>438.0599157601001</v>
       </c>
-      <c r="L44" t="n">
-        <v>149.8324888876306</v>
-      </c>
       <c r="M44" t="n">
-        <v>217.4199057472902</v>
+        <v>187.5105785059076</v>
       </c>
       <c r="N44" t="n">
-        <v>438.0599157601001</v>
+        <v>193.5739638299241</v>
       </c>
       <c r="O44" t="n">
         <v>174.0309303768266</v>
@@ -38040,7 +38040,7 @@
         <v>62.90146617041225</v>
       </c>
       <c r="R44" t="n">
-        <v>83.0301434230509</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>14.64088525411734</v>
       </c>
       <c r="K45" t="n">
-        <v>409.590766259269</v>
+        <v>76.3373786744737</v>
       </c>
       <c r="L45" t="n">
-        <v>133.058815892803</v>
+        <v>438.0599157601001</v>
       </c>
       <c r="M45" t="n">
         <v>438.0599157601001</v>
       </c>
       <c r="N45" t="n">
-        <v>438.0599157601001</v>
+        <v>181.8886331693809</v>
       </c>
       <c r="O45" t="n">
-        <v>151.8038100977615</v>
+        <v>396.1041245467453</v>
       </c>
       <c r="P45" t="n">
         <v>109.1425135323138</v>
@@ -38119,7 +38119,7 @@
         <v>40.18364994817425</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>40.12325585923348</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
